--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDF4ACB-BF2D-46DD-A5A0-AB7A4FB5DD0C}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A178BD2D-6C54-4606-96E2-A47F98BEFE1E}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="915" windowWidth="21510" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1080" windowWidth="15195" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="379">
   <si>
     <t>Листинг</t>
   </si>
@@ -1189,13 +1189,19 @@
   </si>
   <si>
     <t>Кинёва Анна Мх</t>
+  </si>
+  <si>
+    <t>Медведев Данил ПМ</t>
+  </si>
+  <si>
+    <t>Быков Илья Мх</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1275,8 +1281,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,6 +1321,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1314,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1332,9 +1370,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1349,9 +1384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1372,9 +1404,6 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1387,11 +1416,224 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1402,6 +1644,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}" name="Таблица1" displayName="Таблица1" ref="A1:I107" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:I107" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{93552DC0-400C-4041-9CCE-C18FD2B6831E}" name="Листинг" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9E9E2B49-CA37-44D6-8AE2-28CC5F771432}" name="Имя" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9435CBF6-ED5E-4320-A96F-556C3F73813F}" name="Название" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{52068E18-F2F5-450F-8D7A-7092B4AF0E59}" name="Страница" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4EEEFFB7-77F0-4CC9-8ED1-B24C16B04254}" name="Строк" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{19F840D8-A240-40D0-A93F-75D2D6A18B2C}" name="Студент, отвечает за код"/>
+    <tableColumn id="7" xr3:uid="{A7989D18-D756-4842-B2F4-DE249D9B736C}" name="Дата доклада ПМ" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FDF6A1B6-ECCA-419F-A711-49B5F0FEF8B9}" name="Дата доклада Мх" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3D80D189-23E1-4D33-9D36-F32F758A7C2D}" name="Докладчик из другой группы" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1604,19 +1864,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="8" width="33.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" customWidth="1"/>
     <col min="10" max="10" width="35.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" customWidth="1"/>
   </cols>
@@ -1640,10 +1903,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>373</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1672,24 +1935,24 @@
       <c r="E2" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>45916</v>
       </c>
-      <c r="H2" s="21">
-        <v>45931</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="19">
+        <v>45932</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="3" t="str" cm="1">
-        <f t="array" ref="J2:J50">_xlfn.UNIQUE(Лист1!$F$2:$F$107)</f>
+        <f t="array" ref="J2:J50">_xlfn.UNIQUE($F$2:$F$107)</f>
         <v>Чистяков Андрей ПМ</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K48" si="0">SUMIF(F2:F107, J2, E2:E107)</f>
+        <f t="shared" ref="K2:K50" si="0">SUMIF(F2:F107, J2, E2:E107)</f>
         <v>24</v>
       </c>
     </row>
@@ -1709,16 +1972,16 @@
       <c r="E3" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>45923</v>
       </c>
-      <c r="H3" s="21">
-        <v>45931</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="19">
+        <v>45932</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="3" t="str">
@@ -1730,31 +1993,31 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="40">
         <v>69</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="40">
         <v>16</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>45937</v>
       </c>
-      <c r="H4" s="21">
-        <v>45938</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="19">
+        <v>45939</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -1779,11 +2042,11 @@
       <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="5"/>
       <c r="J5" s="3" t="str">
         <v>Илья Быков Мх</v>
@@ -1794,31 +2057,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="40">
         <v>77</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="40">
         <v>5</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>45937</v>
       </c>
-      <c r="H6" s="12">
-        <v>45938</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="11">
+        <v>45939</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -1830,32 +2093,32 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="40">
         <v>99</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="40">
         <v>4</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>44118</v>
       </c>
       <c r="H7" s="19">
-        <v>45945</v>
+        <v>45960</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="J7" s="3" t="str">
         <v>Овсянникова Анастасия ПМ</v>
@@ -1866,31 +2129,31 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <v>99</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="23">
-        <v>45944</v>
+      <c r="G8" s="30">
+        <v>45958</v>
       </c>
       <c r="H8" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>208</v>
       </c>
       <c r="J8" s="3" t="str">
@@ -1902,31 +2165,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="23">
-        <v>45944</v>
+      <c r="G9" s="30">
+        <v>45958</v>
       </c>
       <c r="H9" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I9" s="24" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>208</v>
       </c>
       <c r="J9" s="6" t="str">
@@ -1938,31 +2201,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="15">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="15">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="23">
-        <v>45944</v>
+      <c r="G10" s="30">
+        <v>45958</v>
       </c>
       <c r="H10" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>257</v>
       </c>
       <c r="J10" s="3" t="str">
@@ -1989,16 +2252,16 @@
       <c r="E11" s="3">
         <v>12</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="23">
-        <v>45944</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="30">
+        <v>45958</v>
+      </c>
+      <c r="H11" s="22">
         <v>45945</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="18" t="s">
         <v>257</v>
       </c>
       <c r="J11" s="4" t="str">
@@ -2025,16 +2288,16 @@
       <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>45944</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="22">
         <v>45945</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>374</v>
       </c>
       <c r="J12" s="3" t="str">
@@ -2061,16 +2324,16 @@
       <c r="E13" s="3">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="22">
-        <v>45944</v>
+      <c r="G13" s="19">
+        <v>45951</v>
       </c>
       <c r="H13" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I13" s="16" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="3" t="str">
@@ -2097,16 +2360,16 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="25">
-        <v>45944</v>
+      <c r="G14" s="29">
+        <v>45951</v>
       </c>
       <c r="H14" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I14" s="24" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>156</v>
       </c>
       <c r="J14" s="7" t="str">
@@ -2133,16 +2396,16 @@
       <c r="E15" s="3">
         <v>8</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>45944</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="38">
         <v>45945</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="3" t="str">
@@ -2154,31 +2417,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <v>112</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="15">
         <v>16</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="25">
-        <v>45944</v>
+      <c r="G16" s="19">
+        <v>45951</v>
       </c>
       <c r="H16" s="19">
-        <v>45945</v>
-      </c>
-      <c r="I16" s="17" t="s">
+        <v>45960</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="3" t="str">
@@ -2205,17 +2468,17 @@
       <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="22">
         <v>45944</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>45945</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>316</v>
+      <c r="I17" s="21" t="s">
+        <v>377</v>
       </c>
       <c r="J17" s="3" t="str">
         <v>Карасс Виталий Мх</v>
@@ -2226,32 +2489,32 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="40">
         <v>145</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>45944</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>45945</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>316</v>
+      <c r="I18" s="21" t="s">
+        <v>377</v>
       </c>
       <c r="J18" s="3" t="str">
         <v>Кинева Анна Мх</v>
@@ -2262,31 +2525,31 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <v>148</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="15">
         <v>4</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="31">
         <v>45951</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="19">
         <v>45938</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="3" t="str">
@@ -2298,31 +2561,31 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <v>148</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="15">
         <v>9</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="31">
         <v>45951</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="19">
         <v>45938</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="3" t="str">
@@ -2334,31 +2597,31 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="15">
         <v>150</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="15">
         <v>18</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="31">
         <v>45951</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="19">
         <v>45938</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="16" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="3" t="str">
@@ -2370,34 +2633,34 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="15">
         <v>150</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="15">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="31">
         <v>45951</v>
       </c>
-      <c r="H22" s="14">
-        <v>45945</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="19">
+        <v>45932</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" s="9" t="str">
         <v>Матвиевский Арсений Мх</v>
       </c>
       <c r="K22" s="4">
@@ -2421,16 +2684,16 @@
       <c r="E23" s="3">
         <v>30</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="31">
         <v>45951</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="17">
         <v>45945</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="15" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="3" t="str">
@@ -2457,16 +2720,16 @@
       <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="31">
         <v>45951</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="17">
         <v>45945</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="3" t="str">
@@ -2493,16 +2756,16 @@
       <c r="E25" s="3">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="31">
         <v>45951</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="17">
         <v>45945</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="3" t="str">
@@ -2529,16 +2792,16 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="31">
         <v>45951</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="17">
         <v>45945</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="3" t="str">
@@ -2565,16 +2828,16 @@
       <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="31">
         <v>45951</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="17">
         <v>45945</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J27" s="3" t="str">
@@ -2601,16 +2864,16 @@
       <c r="E28" s="3">
         <v>9</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="31">
         <v>45951</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="17">
         <v>45945</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J28" s="3" t="str">
@@ -2622,31 +2885,31 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="15">
         <v>161</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="15">
         <v>22</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="29">
         <v>45951</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="17">
         <v>45945</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="18" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="3" t="str">
@@ -2673,16 +2936,16 @@
       <c r="E30" s="3">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="15">
-        <v>45951</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="G30" s="25">
+        <v>45958</v>
+      </c>
+      <c r="H30" s="17">
         <v>45945</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="6" t="str">
@@ -2694,31 +2957,31 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="15">
         <v>163</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="15">
         <v>15</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="32">
         <v>45951</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="17">
         <v>45945</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="16" t="s">
         <v>174</v>
       </c>
       <c r="J31" s="3" t="str">
@@ -2730,31 +2993,31 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="15">
         <v>183</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="15">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="32">
         <v>45951</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="17">
         <v>45945</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="16" t="s">
         <v>174</v>
       </c>
       <c r="J32" s="4" t="str">
@@ -2766,31 +3029,31 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="15">
         <v>242</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="15">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="25">
         <v>45958</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="17">
         <v>45952</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="15" t="s">
         <v>184</v>
       </c>
       <c r="J33" s="3" t="str">
@@ -2802,31 +3065,31 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="15">
         <v>243</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="15">
         <v>12</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="25">
         <v>45958</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="17">
         <v>45952</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="15" t="s">
         <v>184</v>
       </c>
       <c r="J34" s="3" t="str">
@@ -2838,31 +3101,31 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="15">
         <v>243</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="15">
         <v>11</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="37">
         <v>45958</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="17">
         <v>45952</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J35" s="6" t="str">
@@ -2889,17 +3152,17 @@
       <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="25">
         <v>45958</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="17">
         <v>45952</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>33</v>
+      <c r="I36" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>Глезденев Александр ПМ</v>
@@ -2925,17 +3188,17 @@
       <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="25">
         <v>45958</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="17">
         <v>45952</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>33</v>
+      <c r="I37" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="J37" s="4" t="str">
         <v>Иванова Мария ПМ</v>
@@ -2961,16 +3224,16 @@
       <c r="E38" s="3">
         <v>9</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="37">
         <v>45958</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="17">
         <v>45952</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="3" t="str">
@@ -2997,16 +3260,16 @@
       <c r="E39" s="3">
         <v>28</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="37">
         <v>45958</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="17">
         <v>45952</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J39" s="4" t="str">
@@ -3033,16 +3296,16 @@
       <c r="E40" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="25">
         <v>45958</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="17">
         <v>45952</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="6" t="str">
@@ -3069,16 +3332,16 @@
       <c r="E41" s="3">
         <v>3</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="37">
         <v>45958</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="17">
         <v>45952</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J41" s="4" t="str">
@@ -3105,16 +3368,16 @@
       <c r="E42" s="3">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="37">
         <v>45958</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="17">
         <v>45952</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J42" s="3" t="str">
@@ -3141,16 +3404,16 @@
       <c r="E43" s="3">
         <v>3</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="37">
         <v>45958</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="17">
         <v>45952</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J43" s="6" t="str">
@@ -3177,16 +3440,16 @@
       <c r="E44" s="3">
         <v>8</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="25">
         <v>45958</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="17">
         <v>45952</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="str">
@@ -3213,16 +3476,16 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="25">
         <v>45958</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="17">
         <v>45952</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="str">
@@ -3234,31 +3497,31 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="15">
         <v>259</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="15">
         <v>30</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="37">
         <v>45958</v>
       </c>
-      <c r="H46" s="14">
-        <v>45952</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="19">
+        <v>45960</v>
+      </c>
+      <c r="I46" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J46" t="str">
@@ -3285,16 +3548,16 @@
       <c r="E47" s="3">
         <v>30</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="37">
         <v>45958</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="17">
         <v>45952</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J47" t="str">
@@ -3321,16 +3584,16 @@
       <c r="E48" s="3">
         <v>7</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H48" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="G48" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H48" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I48" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J48" t="str">
@@ -3341,7 +3604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>170</v>
       </c>
@@ -3357,23 +3620,27 @@
       <c r="E49" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H49" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="G49" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H49" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I49" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J49" t="str">
         <v>Дизендорф Андрей Константинович ПМ</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>172</v>
       </c>
@@ -3389,23 +3656,27 @@
       <c r="E50" s="3">
         <v>12</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H50" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="G50" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H50" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I50" s="27" t="s">
         <v>12</v>
       </c>
       <c r="J50" t="str">
         <v>Панкратова Анна ПМ</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>175</v>
       </c>
@@ -3421,20 +3692,20 @@
       <c r="E51" s="3">
         <v>31</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G51" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H51" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="G51" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H51" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I51" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>178</v>
       </c>
@@ -3450,20 +3721,20 @@
       <c r="E52" s="3">
         <v>16</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H52" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="G52" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H52" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>181</v>
       </c>
@@ -3479,20 +3750,20 @@
       <c r="E53" s="3">
         <v>19</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G53" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H53" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="G53" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H53" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>185</v>
       </c>
@@ -3508,20 +3779,20 @@
       <c r="E54" s="3">
         <v>16</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G54" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H54" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="G54" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H54" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>188</v>
       </c>
@@ -3537,20 +3808,20 @@
       <c r="E55" s="3">
         <v>30</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H55" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="G55" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H55" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I55" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>191</v>
       </c>
@@ -3566,20 +3837,20 @@
       <c r="E56" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H56" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="G56" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H56" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I56" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>195</v>
       </c>
@@ -3595,20 +3866,20 @@
       <c r="E57" s="3">
         <v>41</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H57" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="G57" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H57" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>198</v>
       </c>
@@ -3624,20 +3895,20 @@
       <c r="E58" s="3">
         <v>17</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G58" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H58" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="G58" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H58" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I58" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>202</v>
       </c>
@@ -3653,20 +3924,20 @@
       <c r="E59" s="3">
         <v>5</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H59" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="G59" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H59" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I59" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>205</v>
       </c>
@@ -3682,20 +3953,20 @@
       <c r="E60" s="3">
         <v>32</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G60" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H60" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="G60" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H60" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I60" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>209</v>
       </c>
@@ -3711,20 +3982,20 @@
       <c r="E61" s="3">
         <v>42</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H61" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="G61" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H61" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I61" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>213</v>
       </c>
@@ -3740,20 +4011,20 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="G62" s="15">
-        <v>45965</v>
-      </c>
-      <c r="H62" s="14">
-        <v>45959</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="G62" s="25">
+        <v>45972</v>
+      </c>
+      <c r="H62" s="17">
+        <v>45967</v>
+      </c>
+      <c r="I62" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>217</v>
       </c>
@@ -3772,17 +4043,17 @@
       <c r="F63" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>45972</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>45966</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>221</v>
       </c>
@@ -3801,10 +4072,10 @@
       <c r="F64" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>45972</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>45966</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -3830,10 +4101,10 @@
       <c r="F65" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <v>45972</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>45966</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -3859,10 +4130,10 @@
       <c r="F66" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="14">
         <v>45972</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>45966</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -3888,10 +4159,10 @@
       <c r="F67" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="14">
         <v>45972</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>45966</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3917,10 +4188,10 @@
       <c r="F68" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>45972</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>45966</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3946,10 +4217,10 @@
       <c r="F69" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="14">
         <v>45972</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>45966</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -3975,10 +4246,10 @@
       <c r="F70" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <v>45972</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>45966</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -4004,10 +4275,10 @@
       <c r="F71" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <v>45972</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>45966</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -4033,10 +4304,10 @@
       <c r="F72" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="14">
         <v>45972</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>45966</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -4062,10 +4333,10 @@
       <c r="F73" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="14">
         <v>45972</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>45966</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -4091,10 +4362,10 @@
       <c r="F74" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="14">
         <v>45972</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>45966</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -4120,10 +4391,10 @@
       <c r="F75" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="14">
         <v>45972</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <v>45966</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -4149,10 +4420,10 @@
       <c r="F76" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="14">
         <v>45972</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>45966</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -4178,10 +4449,10 @@
       <c r="F77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="14">
         <v>45972</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>45966</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -4207,10 +4478,10 @@
       <c r="F78" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="14">
         <v>45979</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>45973</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -4236,10 +4507,10 @@
       <c r="F79" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="14">
         <v>45979</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>45973</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -4265,10 +4536,10 @@
       <c r="F80" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="14">
         <v>45979</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>45973</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -4294,10 +4565,10 @@
       <c r="F81" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="14">
         <v>45979</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <v>45973</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -4323,10 +4594,10 @@
       <c r="F82" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="14">
         <v>45979</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>45973</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -4352,10 +4623,10 @@
       <c r="F83" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="14">
         <v>45979</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>45973</v>
       </c>
       <c r="I83" s="3" t="s">
@@ -4381,10 +4652,10 @@
       <c r="F84" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="14">
         <v>45979</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>45973</v>
       </c>
       <c r="I84" s="3" t="s">
@@ -4410,10 +4681,10 @@
       <c r="F85" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="14">
         <v>45979</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>45973</v>
       </c>
       <c r="I85" s="3" t="s">
@@ -4439,10 +4710,10 @@
       <c r="F86" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="14">
         <v>45979</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>45973</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -4468,10 +4739,10 @@
       <c r="F87" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="14">
         <v>45979</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <v>45973</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -4497,10 +4768,10 @@
       <c r="F88" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="14">
         <v>45979</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>45973</v>
       </c>
       <c r="I88" s="3" t="s">
@@ -4526,10 +4797,10 @@
       <c r="F89" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="14">
         <v>45979</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>45973</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -4555,10 +4826,10 @@
       <c r="F90" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="14">
         <v>45979</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>45973</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -4584,10 +4855,10 @@
       <c r="F91" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="14">
         <v>45979</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>45973</v>
       </c>
       <c r="I91" s="3" t="s">
@@ -4613,10 +4884,10 @@
       <c r="F92" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="14">
         <v>45979</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>45973</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -4642,10 +4913,10 @@
       <c r="F93" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="14">
         <v>45986</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>45980</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -4671,10 +4942,10 @@
       <c r="F94" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="14">
         <v>45986</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>45980</v>
       </c>
       <c r="I94" s="3" t="s">
@@ -4700,10 +4971,10 @@
       <c r="F95" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="14">
         <v>45986</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="13">
         <v>45980</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -4729,10 +5000,10 @@
       <c r="F96" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="14">
         <v>45986</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>45980</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -4758,10 +5029,10 @@
       <c r="F97" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="14">
         <v>45986</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>45980</v>
       </c>
       <c r="I97" s="3" t="s">
@@ -4787,10 +5058,10 @@
       <c r="F98" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="14">
         <v>45986</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>45980</v>
       </c>
       <c r="I98" s="3" t="s">
@@ -4816,10 +5087,10 @@
       <c r="F99" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="14">
         <v>45986</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>45980</v>
       </c>
       <c r="I99" s="3" t="s">
@@ -4845,10 +5116,10 @@
       <c r="F100" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="14">
         <v>45986</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>45980</v>
       </c>
       <c r="I100" s="3" t="s">
@@ -4874,10 +5145,10 @@
       <c r="F101" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="14">
         <v>45986</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>45980</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -4903,10 +5174,10 @@
       <c r="F102" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="14">
         <v>45986</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="13">
         <v>45980</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -4932,10 +5203,10 @@
       <c r="F103" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="14">
         <v>45986</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>45980</v>
       </c>
       <c r="I103" s="3" t="s">
@@ -4961,10 +5232,10 @@
       <c r="F104" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="14">
         <v>45986</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>45980</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -4990,10 +5261,10 @@
       <c r="F105" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="14">
         <v>45986</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>45980</v>
       </c>
       <c r="I105" s="3" t="s">
@@ -5019,14 +5290,14 @@
       <c r="F106" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="14">
         <v>45986</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>45980</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,10 +5319,10 @@
       <c r="F107" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="14">
         <v>45986</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>45980</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -5108,7 +5379,7 @@
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="13"/>
+      <c r="D113" s="12"/>
     </row>
     <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6000,5 +6271,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A178BD2D-6C54-4606-96E2-A47F98BEFE1E}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB2209F-DAD2-40CE-A9F1-0C52D5CF51DB}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1080" windowWidth="15195" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="2040" windowWidth="16140" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1865,10 +1865,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="A32:E32"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2237,19 +2237,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="15">
         <v>101</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="15">
         <v>12</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -2273,19 +2273,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="15">
         <v>110</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="15">
         <v>6</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -2453,19 +2453,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="40">
         <v>121</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="40" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="21" t="s">
@@ -2957,19 +2957,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="40">
         <v>163</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="40">
         <v>15</v>
       </c>
       <c r="F31" s="15" t="s">
@@ -2993,19 +2993,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="40">
         <v>183</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="40">
         <v>15</v>
       </c>
       <c r="F32" s="15" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB2209F-DAD2-40CE-A9F1-0C52D5CF51DB}"/>
+  <xr:revisionPtr revIDLastSave="855" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77344207-5434-45E0-BD39-E4741436F866}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="2040" windowWidth="16140" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="1545" windowWidth="27855" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="378">
   <si>
     <t>Листинг</t>
   </si>
@@ -1170,12 +1170,6 @@
     <t>Строк на чел.</t>
   </si>
   <si>
-    <t>Русских Анастасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Русских Анастасия </t>
-  </si>
-  <si>
     <t>Дата доклада ПМ</t>
   </si>
   <si>
@@ -1195,13 +1189,16 @@
   </si>
   <si>
     <t>Быков Илья Мх</t>
+  </si>
+  <si>
+    <t>Матвеева Дарья !Хайретдинов Булат Мх</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1295,8 +1292,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1339,6 +1343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1352,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1380,9 +1390,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1453,13 +1460,28 @@
     <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1868,7 +1890,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="A17:E17"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1904,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1935,16 +1957,16 @@
       <c r="E2" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>45916</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>45932</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="3" t="str" cm="1">
@@ -1972,16 +1994,16 @@
       <c r="E3" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>45923</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>45932</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="3" t="str">
@@ -1993,31 +2015,31 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>69</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>45937</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>45939</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -2057,31 +2079,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="38">
         <v>77</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>45937</v>
       </c>
       <c r="H6" s="11">
         <v>45939</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -2093,32 +2115,32 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>99</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>4</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>44118</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>45960</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>378</v>
+      <c r="I7" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="J7" s="3" t="str">
         <v>Овсянникова Анастасия ПМ</v>
@@ -2129,31 +2151,31 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>99</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>45958</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>45960</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>208</v>
       </c>
       <c r="J8" s="3" t="str">
@@ -2165,31 +2187,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>100</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>7</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>45958</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>45960</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>208</v>
       </c>
       <c r="J9" s="6" t="str">
@@ -2201,31 +2223,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>100</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>10</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>45958</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>45960</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>257</v>
       </c>
       <c r="J10" s="3" t="str">
@@ -2237,31 +2259,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>101</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>12</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>45958</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>45945</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>257</v>
       </c>
       <c r="J11" s="4" t="str">
@@ -2273,32 +2295,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>110</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>6</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>45944</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>45945</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>374</v>
+      <c r="I12" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="J12" s="3" t="str">
         <v>Матвеева Дарья Мх</v>
@@ -2324,16 +2346,16 @@
       <c r="E13" s="3">
         <v>13</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>45951</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>45960</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="3" t="str">
@@ -2360,16 +2382,16 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>45951</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>45960</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>156</v>
       </c>
       <c r="J14" s="7" t="str">
@@ -2396,16 +2418,16 @@
       <c r="E15" s="3">
         <v>8</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>45944</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="40">
         <v>45945</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="3" t="str">
@@ -2417,31 +2439,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>112</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>16</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>45951</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>45960</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="3" t="str">
@@ -2453,32 +2475,32 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <v>121</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>45944</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="21">
         <v>45945</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>377</v>
+      <c r="I17" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="J17" s="3" t="str">
         <v>Карасс Виталий Мх</v>
@@ -2489,32 +2511,32 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>145</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>45944</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="21">
         <v>45945</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>377</v>
+      <c r="I18" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="J18" s="3" t="str">
         <v>Кинева Анна Мх</v>
@@ -2525,31 +2547,31 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>148</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>4</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <v>45951</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>45938</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="3" t="str">
@@ -2561,31 +2583,31 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>148</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>9</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="30">
         <v>45951</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>45938</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="3" t="str">
@@ -2597,31 +2619,31 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>150</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>18</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <v>45951</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>45938</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="3" t="str">
@@ -2633,31 +2655,31 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>150</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>10</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>45951</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>45932</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>84</v>
       </c>
       <c r="J22" s="9" t="str">
@@ -2684,17 +2706,17 @@
       <c r="E23" s="3">
         <v>30</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <v>45951</v>
       </c>
-      <c r="H23" s="17">
-        <v>45945</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>70</v>
+      <c r="H23" s="18">
+        <v>45943</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="J23" s="3" t="str">
         <v>Зарипов Тимур Мх</v>
@@ -2720,16 +2742,16 @@
       <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>45951</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="21">
         <v>45945</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="3" t="str">
@@ -2759,13 +2781,13 @@
       <c r="F25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>45951</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="21">
         <v>45945</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="3" t="str">
@@ -2795,13 +2817,13 @@
       <c r="F26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>45951</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="21">
         <v>45945</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="3" t="str">
@@ -2828,14 +2850,14 @@
       <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>45951</v>
       </c>
-      <c r="H27" s="17">
-        <v>45945</v>
+      <c r="H27" s="21">
+        <v>45950</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>102</v>
@@ -2864,14 +2886,14 @@
       <c r="E28" s="3">
         <v>9</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>45951</v>
       </c>
-      <c r="H28" s="17">
-        <v>45945</v>
+      <c r="H28" s="21">
+        <v>45950</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>102</v>
@@ -2885,31 +2907,31 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>161</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>22</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <v>45951</v>
       </c>
-      <c r="H29" s="17">
-        <v>45945</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="21">
+        <v>45950</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="3" t="str">
@@ -2921,31 +2943,31 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="14">
         <v>162</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="14">
         <v>8</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="31">
         <v>45958</v>
       </c>
-      <c r="H30" s="17">
-        <v>45945</v>
-      </c>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="21">
+        <v>45950</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="6" t="str">
@@ -2957,31 +2979,31 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="38">
         <v>163</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="38">
         <v>15</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="32">
-        <v>45951</v>
-      </c>
-      <c r="H31" s="17">
-        <v>45945</v>
-      </c>
-      <c r="I31" s="16" t="s">
+      <c r="G31" s="18">
+        <v>45972</v>
+      </c>
+      <c r="H31" s="18">
+        <v>45972</v>
+      </c>
+      <c r="I31" s="39" t="s">
         <v>174</v>
       </c>
       <c r="J31" s="3" t="str">
@@ -2993,31 +3015,31 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="38">
         <v>183</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="38">
         <v>15</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="32">
-        <v>45951</v>
-      </c>
-      <c r="H32" s="17">
-        <v>45945</v>
-      </c>
-      <c r="I32" s="16" t="s">
+      <c r="G32" s="18">
+        <v>45972</v>
+      </c>
+      <c r="H32" s="18">
+        <v>45972</v>
+      </c>
+      <c r="I32" s="39" t="s">
         <v>174</v>
       </c>
       <c r="J32" s="4" t="str">
@@ -3029,31 +3051,31 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>242</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>13</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="25">
-        <v>45958</v>
-      </c>
-      <c r="H33" s="17">
-        <v>45952</v>
-      </c>
-      <c r="I33" s="15" t="s">
+      <c r="G33" s="18">
+        <v>45972</v>
+      </c>
+      <c r="H33" s="40">
+        <v>45978</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>184</v>
       </c>
       <c r="J33" s="3" t="str">
@@ -3065,31 +3087,31 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>243</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>12</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="25">
-        <v>45958</v>
-      </c>
-      <c r="H34" s="17">
-        <v>45952</v>
-      </c>
-      <c r="I34" s="15" t="s">
+      <c r="G34" s="18">
+        <v>45972</v>
+      </c>
+      <c r="H34" s="40">
+        <v>45978</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>184</v>
       </c>
       <c r="J34" s="3" t="str">
@@ -3101,31 +3123,31 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>243</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>11</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>45958</v>
       </c>
-      <c r="H35" s="17">
-        <v>45952</v>
-      </c>
-      <c r="I35" s="36" t="s">
+      <c r="H35" s="21">
+        <v>45978</v>
+      </c>
+      <c r="I35" s="35" t="s">
         <v>33</v>
       </c>
       <c r="J35" s="6" t="str">
@@ -3155,10 +3177,10 @@
       <c r="F36" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="31">
         <v>45958</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="21">
         <v>45952</v>
       </c>
       <c r="I36" s="15" t="s">
@@ -3191,10 +3213,10 @@
       <c r="F37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="31">
         <v>45958</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="21">
         <v>45952</v>
       </c>
       <c r="I37" s="15" t="s">
@@ -3227,13 +3249,13 @@
       <c r="F38" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>45958</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="21">
         <v>45952</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="3" t="str">
@@ -3263,13 +3285,13 @@
       <c r="F39" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>45958</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="21">
         <v>45952</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J39" s="4" t="str">
@@ -3296,16 +3318,16 @@
       <c r="E40" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="31">
         <v>45958</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="21">
         <v>45952</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="35" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="6" t="str">
@@ -3335,13 +3357,13 @@
       <c r="F41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="31">
         <v>45958</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="21">
         <v>45952</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J41" s="4" t="str">
@@ -3371,13 +3393,13 @@
       <c r="F42" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="31">
         <v>45958</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="21">
         <v>45952</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J42" s="3" t="str">
@@ -3407,13 +3429,13 @@
       <c r="F43" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="31">
         <v>45958</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="21">
         <v>45952</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J43" s="6" t="str">
@@ -3440,16 +3462,16 @@
       <c r="E44" s="3">
         <v>8</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="25">
-        <v>45958</v>
-      </c>
-      <c r="H44" s="17">
+      <c r="G44" s="18">
+        <v>45972</v>
+      </c>
+      <c r="H44" s="21">
         <v>45952</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="35" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="str">
@@ -3476,16 +3498,16 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="31">
         <v>45958</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="21">
         <v>45952</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="str">
@@ -3497,31 +3519,31 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>259</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>30</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <v>45958</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="18">
         <v>45960</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J46" t="str">
@@ -3548,16 +3570,16 @@
       <c r="E47" s="3">
         <v>30</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="37">
-        <v>45958</v>
-      </c>
-      <c r="H47" s="17">
+      <c r="G47" s="18">
+        <v>45974</v>
+      </c>
+      <c r="H47" s="21">
         <v>45952</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J47" t="str">
@@ -3587,13 +3609,13 @@
       <c r="F48" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="31">
         <v>45972</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="21">
         <v>45967</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J48" t="str">
@@ -3623,13 +3645,13 @@
       <c r="F49" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="31">
         <v>45972</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="21">
         <v>45967</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J49" t="str">
@@ -3659,13 +3681,13 @@
       <c r="F50" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="31">
         <v>45972</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="21">
         <v>45967</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="15" t="s">
         <v>12</v>
       </c>
       <c r="J50" t="str">
@@ -3695,13 +3717,13 @@
       <c r="F51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="31">
         <v>45972</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="21">
         <v>45967</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3724,13 +3746,13 @@
       <c r="F52" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="31">
         <v>45972</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="21">
         <v>45967</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3753,13 +3775,13 @@
       <c r="F53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="31">
         <v>45972</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="21">
         <v>45967</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3782,13 +3804,13 @@
       <c r="F54" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="31">
         <v>45972</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="21">
         <v>45967</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3811,13 +3833,13 @@
       <c r="F55" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="31">
         <v>45972</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="21">
         <v>45967</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="I55" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3840,13 +3862,13 @@
       <c r="F56" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="31">
         <v>45972</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="21">
         <v>45967</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3869,13 +3891,13 @@
       <c r="F57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="31">
         <v>45972</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="21">
         <v>45967</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3898,13 +3920,13 @@
       <c r="F58" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="31">
         <v>45972</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="21">
         <v>45967</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3927,13 +3949,13 @@
       <c r="F59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="31">
         <v>45972</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="21">
         <v>45967</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3956,13 +3978,13 @@
       <c r="F60" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="31">
         <v>45972</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="21">
         <v>45967</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3985,13 +4007,13 @@
       <c r="F61" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="31">
         <v>45972</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="21">
         <v>45967</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4011,16 +4033,16 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="31">
         <v>45972</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="21">
         <v>45967</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4040,16 +4062,16 @@
       <c r="E63" s="3">
         <v>15</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="31">
         <v>45972</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="21">
         <v>45966</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4069,16 +4091,16 @@
       <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="31">
         <v>45972</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="21">
         <v>45966</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4098,16 +4120,16 @@
       <c r="E65" s="3">
         <v>13</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="31">
         <v>45972</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="21">
         <v>45966</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4127,16 +4149,16 @@
       <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G66" s="14">
+      <c r="F66" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G66" s="31">
         <v>45972</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="21">
         <v>45966</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4156,16 +4178,16 @@
       <c r="E67" s="3">
         <v>12</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G67" s="14">
+      <c r="F67" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G67" s="31">
         <v>45972</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="21">
         <v>45966</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4185,16 +4207,16 @@
       <c r="E68" s="3">
         <v>12</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="31">
         <v>45972</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="21">
         <v>45966</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4214,16 +4236,16 @@
       <c r="E69" s="3">
         <v>20</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="31">
         <v>45972</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="21">
         <v>45966</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4243,16 +4265,16 @@
       <c r="E70" s="3">
         <v>18</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="31">
         <v>45972</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="21">
         <v>45966</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4272,16 +4294,16 @@
       <c r="E71" s="3">
         <v>5</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="31">
         <v>45972</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="21">
         <v>45966</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4301,16 +4323,16 @@
       <c r="E72" s="3">
         <v>17</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="31">
         <v>45972</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="21">
         <v>45966</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="15" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4330,16 +4352,16 @@
       <c r="E73" s="3">
         <v>14</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="31">
         <v>45972</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="21">
         <v>45966</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="15" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4359,16 +4381,16 @@
       <c r="E74" s="3">
         <v>5</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="31">
         <v>45972</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="21">
         <v>45966</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4388,16 +4410,16 @@
       <c r="E75" s="3">
         <v>28</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="31">
         <v>45972</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="21">
         <v>45966</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4417,16 +4439,16 @@
       <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="31">
         <v>45972</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="21">
         <v>45966</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="15" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4446,16 +4468,16 @@
       <c r="E77" s="3">
         <v>9</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="31">
         <v>45972</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="21">
         <v>45966</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4475,16 +4497,16 @@
       <c r="E78" s="3">
         <v>13</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="24">
         <v>45979</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="21">
         <v>45973</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="15" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4504,16 +4526,16 @@
       <c r="E79" s="3">
         <v>15</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="24">
         <v>45979</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="21">
         <v>45973</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="15" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4533,16 +4555,16 @@
       <c r="E80" s="3">
         <v>6</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="24">
         <v>45979</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="21">
         <v>45973</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4562,16 +4584,16 @@
       <c r="E81" s="3">
         <v>4</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="24">
         <v>45979</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="21">
         <v>45973</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="14" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4591,16 +4613,16 @@
       <c r="E82" s="3">
         <v>5</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="24">
         <v>45979</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="21">
         <v>45973</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4620,16 +4642,16 @@
       <c r="E83" s="3">
         <v>25</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="24">
         <v>45979</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="21">
         <v>45973</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="14" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4649,16 +4671,16 @@
       <c r="E84" s="3">
         <v>9</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="24">
         <v>45979</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="21">
         <v>45973</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="14" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4678,16 +4700,16 @@
       <c r="E85" s="3">
         <v>11</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="24">
         <v>45979</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="21">
         <v>45973</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4707,45 +4729,45 @@
       <c r="E86" s="3">
         <v>9</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="24">
         <v>45979</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="21">
         <v>45973</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="14">
         <v>356</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="14">
         <v>19</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="24">
         <v>45979</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="21">
         <v>45973</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4765,16 +4787,16 @@
       <c r="E88" s="3">
         <v>10</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="24">
         <v>45979</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="21">
         <v>45973</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4794,16 +4816,16 @@
       <c r="E89" s="3">
         <v>13</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="24">
         <v>45979</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="21">
         <v>45973</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4823,16 +4845,16 @@
       <c r="E90" s="3">
         <v>16</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="24">
         <v>45979</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="21">
         <v>45973</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4852,16 +4874,16 @@
       <c r="E91" s="3">
         <v>23</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="24">
         <v>45979</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="21">
         <v>45973</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4881,17 +4903,17 @@
       <c r="E92" s="3">
         <v>5</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="24">
         <v>45979</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="21">
         <v>45973</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>376</v>
+      <c r="I92" s="15" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,14 +4935,14 @@
       <c r="F93" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="13">
         <v>45986</v>
       </c>
-      <c r="H93" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>376</v>
+      <c r="H93" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,13 +4964,13 @@
       <c r="F94" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="13">
         <v>45986</v>
       </c>
-      <c r="H94" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I94" s="3" t="s">
+      <c r="H94" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4971,13 +4993,13 @@
       <c r="F95" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G95" s="13">
         <v>45986</v>
       </c>
-      <c r="H95" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I95" s="3" t="s">
+      <c r="H95" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I95" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5000,11 +5022,11 @@
       <c r="F96" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="13">
         <v>45986</v>
       </c>
-      <c r="H96" s="13">
-        <v>45980</v>
+      <c r="H96" s="16">
+        <v>45981</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>343</v>
@@ -5029,11 +5051,11 @@
       <c r="F97" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="13">
         <v>45986</v>
       </c>
-      <c r="H97" s="13">
-        <v>45980</v>
+      <c r="H97" s="16">
+        <v>45981</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>216</v>
@@ -5058,13 +5080,13 @@
       <c r="F98" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="13">
         <v>45986</v>
       </c>
-      <c r="H98" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I98" s="3" t="s">
+      <c r="H98" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I98" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5087,13 +5109,13 @@
       <c r="F99" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <v>45986</v>
       </c>
-      <c r="H99" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I99" s="3" t="s">
+      <c r="H99" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I99" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5116,14 +5138,14 @@
       <c r="F100" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>45986</v>
       </c>
-      <c r="H100" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>370</v>
+      <c r="H100" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,14 +5167,14 @@
       <c r="F101" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="13">
         <v>45986</v>
       </c>
-      <c r="H101" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>371</v>
+      <c r="H101" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I101" s="43" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,11 +5196,11 @@
       <c r="F102" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="13">
         <v>45986</v>
       </c>
-      <c r="H102" s="13">
-        <v>45980</v>
+      <c r="H102" s="16">
+        <v>45981</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>156</v>
@@ -5203,13 +5225,13 @@
       <c r="F103" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="13">
         <v>45986</v>
       </c>
-      <c r="H103" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I103" s="3" t="s">
+      <c r="H103" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I103" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5232,13 +5254,13 @@
       <c r="F104" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <v>45986</v>
       </c>
-      <c r="H104" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I104" s="3" t="s">
+      <c r="H104" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I104" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5261,11 +5283,11 @@
       <c r="F105" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="13">
         <v>45986</v>
       </c>
-      <c r="H105" s="13">
-        <v>45980</v>
+      <c r="H105" s="16">
+        <v>45981</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>343</v>
@@ -5290,13 +5312,13 @@
       <c r="F106" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="13">
         <v>45986</v>
       </c>
-      <c r="H106" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I106" s="3" t="s">
+      <c r="H106" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I106" s="14" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5319,13 +5341,13 @@
       <c r="F107" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>45986</v>
       </c>
-      <c r="H107" s="13">
-        <v>45980</v>
-      </c>
-      <c r="I107" s="3" t="s">
+      <c r="H107" s="16">
+        <v>45981</v>
+      </c>
+      <c r="I107" s="37" t="s">
         <v>12</v>
       </c>
     </row>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77344207-5434-45E0-BD39-E4741436F866}"/>
+  <xr:revisionPtr revIDLastSave="937" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B79F663-8DD7-4CED-8F8E-C28A0347729F}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1545" windowWidth="27855" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="150" windowWidth="25320" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="379">
   <si>
     <t>Листинг</t>
   </si>
@@ -78,6 +81,12 @@
     <t>Студент, отвечает за код</t>
   </si>
   <si>
+    <t>Дата доклада ПМ</t>
+  </si>
+  <si>
+    <t>Дата доклада Мх</t>
+  </si>
+  <si>
     <t>Докладчик из другой группы</t>
   </si>
   <si>
@@ -96,249 +105,270 @@
     <t>Чистяков Андрей ПМ</t>
   </si>
   <si>
+    <t>Матвеева Дарья Мх</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>selection sort</t>
+  </si>
+  <si>
+    <t>Сортировка методом выбора</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>findmatch</t>
+  </si>
+  <si>
+    <t>Поиск строки в тексте</t>
+  </si>
+  <si>
+    <t>Парфёнов Вячеслав ПМ</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Умножение матриц</t>
+  </si>
+  <si>
+    <t>Догадаться, как матрица хранится</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Быстрое возведение в степень</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>struct list</t>
+  </si>
+  <si>
+    <t>Объявление структуры связного списка</t>
+  </si>
+  <si>
+    <t>Быков Илья Мх</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>search_list</t>
+  </si>
+  <si>
+    <t>Рекурсивный поиск элемента в связном списке</t>
+  </si>
+  <si>
+    <t>Илья Быков Мх</t>
+  </si>
+  <si>
+    <t>Баранова Дарья ПМ</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>insert_list</t>
+  </si>
+  <si>
+    <t>Вставка элемента в связный список</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>item_ahead</t>
+  </si>
+  <si>
+    <t>Поиск элемента, предшествующего удаляемому</t>
+  </si>
+  <si>
+    <t>Иванова Мария ПМ</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>delete_list</t>
+  </si>
+  <si>
+    <t>Удаление элемента связного списка</t>
+  </si>
+  <si>
+    <t>Волков Александр Мх</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>struct tree</t>
+  </si>
+  <si>
+    <t>Объявление типа для структуры дерева</t>
+  </si>
+  <si>
+    <t>Парфенов Вячеслав ПМ</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>search_tree</t>
+  </si>
+  <si>
+    <t>Рекурсивный поиск элемента в двоичном дереве</t>
+  </si>
+  <si>
+    <t>Овсянникова Анастасия ПМ</t>
+  </si>
+  <si>
+    <t>Иванова Анастасия Мх</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>find_minimum</t>
+  </si>
+  <si>
+    <t>Поиска наименьшего элемента в двоичном дереве</t>
+  </si>
+  <si>
+    <t>Попова Юлианна Мх</t>
+  </si>
+  <si>
+    <t>Черняева Милана ПМ</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>traverse_tree</t>
+  </si>
+  <si>
+    <t>Рекурсивный алгоритм обхода двоичного дерева</t>
+  </si>
+  <si>
+    <t>Чебурин Артём ПМ</t>
+  </si>
+  <si>
     <t>Мх</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>selection sort</t>
-  </si>
-  <si>
-    <t>Сортировка методом выбора</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>findmatch</t>
-  </si>
-  <si>
-    <t>Поиск строки в тексте</t>
-  </si>
-  <si>
-    <t>Парфёнов Вячеслав ПМ</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>Умножение матриц</t>
-  </si>
-  <si>
-    <t>Догадаться, как матрица хранится</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>Быстрое возведение в степень</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>struct list</t>
-  </si>
-  <si>
-    <t>Объявление структуры связного списка</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>search_list</t>
-  </si>
-  <si>
-    <t>Рекурсивный поиск элемента в связном списке</t>
-  </si>
-  <si>
-    <t>Илья Быков Мх</t>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>insert_tree</t>
+  </si>
+  <si>
+    <t>Вствка узла в двоичное дерево поиска</t>
+  </si>
+  <si>
+    <t>нет ном.</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Функция хеширования строки</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Бердникова Екатерина Мх</t>
+  </si>
+  <si>
+    <t>Медведев Данил ПМ</t>
+  </si>
+  <si>
+    <t>qsort</t>
+  </si>
+  <si>
+    <t>Пример использования стандартной функции Си</t>
+  </si>
+  <si>
+    <t>Хайретдинов Булат Мх</t>
+  </si>
+  <si>
+    <t>priority_que</t>
+  </si>
+  <si>
+    <t>Структура для хранения пирамиды</t>
+  </si>
+  <si>
+    <t>Тулумгузина Дарья  ПМ</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>pq_parent, pq_young_child</t>
+  </si>
+  <si>
+    <t>Код для работы с пирамидой</t>
+  </si>
+  <si>
+    <t>Тулумгузина Дарья ПМ</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>pq_insert</t>
+  </si>
+  <si>
+    <t>Вставка элемента в пирамиду</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>pq_init</t>
+  </si>
+  <si>
+    <t>Создание пирамиды повторяющимися вставками</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>extract_min</t>
+  </si>
+  <si>
+    <t>Удаление наименьшего элемента пирамиды</t>
+  </si>
+  <si>
+    <t>Иванов Илья ПМ</t>
+  </si>
+  <si>
+    <t>Матвеева Дарья !Хайретдинов Булат Мх</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>heapsort</t>
+  </si>
+  <si>
+    <t>Пирамидальная сортировка</t>
+  </si>
+  <si>
+    <t>Макатов Владислав Мх</t>
   </si>
   <si>
     <t>ПМ</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>insert_list</t>
-  </si>
-  <si>
-    <t>Вставка элемента в связный список</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>item_ahead</t>
-  </si>
-  <si>
-    <t>Поиск элемента, предшествующего удаляемому</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>delete_list</t>
-  </si>
-  <si>
-    <t>Удаление элемента связного списка</t>
-  </si>
-  <si>
-    <t>Волков Александр Мх</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>struct tree</t>
-  </si>
-  <si>
-    <t>Объявление типа для структуры дерева</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>search_tree</t>
-  </si>
-  <si>
-    <t>Рекурсивный поиск элемента в двоичном дереве</t>
-  </si>
-  <si>
-    <t>Овсянникова Анастасия ПМ</t>
-  </si>
-  <si>
-    <t>Иванова Анастасия Мх</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>find_minimum</t>
-  </si>
-  <si>
-    <t>Поиска наименьшего элемента в двоичном дереве</t>
-  </si>
-  <si>
-    <t>Попова Юлианна Мх</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>traverse_tree</t>
-  </si>
-  <si>
-    <t>Рекурсивный алгоритм обхода двоичного дерева</t>
-  </si>
-  <si>
-    <t>Чебурин Артём ПМ</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>insert_tree</t>
-  </si>
-  <si>
-    <t>Вствка узла в двоичное дерево поиска</t>
-  </si>
-  <si>
-    <t>нет ном.</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Функция хеширования строки</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Бердникова Екатерина Мх</t>
-  </si>
-  <si>
-    <t>qsort</t>
-  </si>
-  <si>
-    <t>Пример использования стандартной функции Си</t>
-  </si>
-  <si>
-    <t>Хайретдинов Булат Мх</t>
-  </si>
-  <si>
-    <t>priority_que</t>
-  </si>
-  <si>
-    <t>Структура для хранения пирамиды</t>
-  </si>
-  <si>
-    <t>Матвеева Дарья Мх</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>pq_parent, pq_young_child</t>
-  </si>
-  <si>
-    <t>Код для работы с пирамидой</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>pq_insert</t>
-  </si>
-  <si>
-    <t>Вставка элемента в пирамиду</t>
-  </si>
-  <si>
-    <t>Тулумгузина Дарья  ПМ</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>pq_init</t>
-  </si>
-  <si>
-    <t>Создание пирамиды повторяющимися вставками</t>
-  </si>
-  <si>
-    <t>Тулумгузина Дарья ПМ</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>extract_min</t>
-  </si>
-  <si>
-    <t>Удаление наименьшего элемента пирамиды</t>
-  </si>
-  <si>
-    <t>Иванов Илья ПМ</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>heapsort</t>
-  </si>
-  <si>
-    <t>Пирамидальная сортировка</t>
-  </si>
-  <si>
-    <t>Макатов Владислав Мх</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>Разбиение массива на части</t>
   </si>
   <si>
+    <t>Барахнина Екатерина ПМ</t>
+  </si>
+  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>Карасс Виталий Мх</t>
   </si>
   <si>
+    <t>Гаврилюк Екатерина ПМ</t>
+  </si>
+  <si>
     <t>7.2</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t>Кинева Анна Мх</t>
   </si>
   <si>
+    <t>Пруденко Дарья ПМ</t>
+  </si>
+  <si>
     <t>7.5</t>
   </si>
   <si>
@@ -528,9 +567,6 @@
     <t>Рекурсивное определение длины пути</t>
   </si>
   <si>
-    <t>Черняева Милана ПМ</t>
-  </si>
-  <si>
     <t>7.14</t>
   </si>
   <si>
@@ -576,15 +612,15 @@
     <t>Поиск шарниров - инициализаия</t>
   </si>
   <si>
+    <t xml:space="preserve"> Барахнина Екатерина ПМ</t>
+  </si>
+  <si>
     <t>7.20</t>
   </si>
   <si>
     <t>Определение возраста предшественников</t>
   </si>
   <si>
-    <t>Барахнина Екатерина ПМ</t>
-  </si>
-  <si>
     <t>7.21</t>
   </si>
   <si>
@@ -612,9 +648,6 @@
     <t>Топологическая сортировка</t>
   </si>
   <si>
-    <t>Гаврилюк Екатерина ПМ</t>
-  </si>
-  <si>
     <t>7.24</t>
   </si>
   <si>
@@ -684,9 +717,6 @@
     <t>Операции union и find</t>
   </si>
   <si>
-    <t>Баранова Дарья ПМ</t>
-  </si>
-  <si>
     <t>8.10</t>
   </si>
   <si>
@@ -750,6 +780,9 @@
     <t>Определение насыщенности</t>
   </si>
   <si>
+    <t>Рыжова Ульяна Мх</t>
+  </si>
+  <si>
     <t>8.16</t>
   </si>
   <si>
@@ -831,9 +864,6 @@
     <t>Структура для генерирования путей в графе</t>
   </si>
   <si>
-    <t>Иванова Мария ПМ</t>
-  </si>
-  <si>
     <t>Тудвасева КристинаМх</t>
   </si>
   <si>
@@ -852,6 +882,9 @@
     <t>Русских Анастасия Мх</t>
   </si>
   <si>
+    <t>Анкушин Иван ПМ</t>
+  </si>
+  <si>
     <t>9.10</t>
   </si>
   <si>
@@ -1008,7 +1041,7 @@
     <t>Структура таблици для вычисления стоимости редактирования</t>
   </si>
   <si>
-    <t>Пруденко Дарья ПМ</t>
+    <t>Кинёва Анна Мх</t>
   </si>
   <si>
     <t>10.8</t>
@@ -1089,9 +1122,6 @@
     <t>Модифицировання функция стоимости совпадений</t>
   </si>
   <si>
-    <t>Анкушин Иван ПМ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.16 </t>
   </si>
   <si>
@@ -1168,37 +1198,13 @@
   </si>
   <si>
     <t>Строк на чел.</t>
-  </si>
-  <si>
-    <t>Дата доклада ПМ</t>
-  </si>
-  <si>
-    <t>Дата доклада Мх</t>
-  </si>
-  <si>
-    <t>Парфенов Вячеслав ПМ</t>
-  </si>
-  <si>
-    <t>Рыжова Ульяна Мх</t>
-  </si>
-  <si>
-    <t>Кинёва Анна Мх</t>
-  </si>
-  <si>
-    <t>Медведев Данил ПМ</t>
-  </si>
-  <si>
-    <t>Быков Илья Мх</t>
-  </si>
-  <si>
-    <t>Матвеева Дарья !Хайретдинов Булат Мх</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1268,13 +1274,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1362,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1426,9 +1425,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1438,10 +1434,10 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1466,7 +1462,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1482,6 +1478,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,6 +1668,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1887,10 +1893,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1926,16 +1932,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -1943,13 +1949,13 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>26</v>
@@ -1958,7 +1964,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="18">
         <v>45916</v>
@@ -1967,7 +1973,7 @@
         <v>45932</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="str" cm="1">
         <f t="array" ref="J2:J50">_xlfn.UNIQUE($F$2:$F$107)</f>
@@ -1980,13 +1986,13 @@
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>67</v>
@@ -1995,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="18">
         <v>45923</v>
@@ -2004,7 +2010,7 @@
         <v>45932</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3" t="str">
         <v>Парфёнов Вячеслав ПМ</v>
@@ -2015,23 +2021,23 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="37">
+        <v>69</v>
+      </c>
+      <c r="E4" s="37">
         <v>16</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="38">
-        <v>69</v>
-      </c>
-      <c r="E4" s="38">
-        <v>16</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="18">
         <v>45937</v>
@@ -2040,7 +2046,7 @@
         <v>45939</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="str">
         <v>Догадаться, как матрица хранится</v>
@@ -2052,11 +2058,11 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3">
         <v>71</v>
@@ -2065,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2079,23 +2085,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="38">
+      <c r="B6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="37">
         <v>77</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="18">
         <v>45937</v>
@@ -2104,7 +2110,7 @@
         <v>45939</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3" t="str">
         <v>Волков Александр Мх</v>
@@ -2115,23 +2121,23 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="38">
+      <c r="B7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="37">
         <v>99</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>4</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="18">
         <v>44118</v>
@@ -2140,7 +2146,7 @@
         <v>45960</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="str">
         <v>Овсянникова Анастасия ПМ</v>
@@ -2152,13 +2158,13 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="14">
         <v>99</v>
@@ -2167,16 +2173,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="29">
+        <v>35</v>
+      </c>
+      <c r="G8" s="28">
         <v>45958</v>
       </c>
       <c r="H8" s="18">
         <v>45960</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="J8" s="3" t="str">
         <v>Попова Юлианна Мх</v>
@@ -2188,13 +2194,13 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="14">
         <v>100</v>
@@ -2203,16 +2209,16 @@
         <v>7</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="29">
+        <v>35</v>
+      </c>
+      <c r="G9" s="28">
         <v>45958</v>
       </c>
       <c r="H9" s="18">
         <v>45960</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6" t="str">
         <v>Чебурин Артём ПМ</v>
@@ -2224,13 +2230,13 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="14">
         <v>100</v>
@@ -2239,16 +2245,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="29">
+        <v>35</v>
+      </c>
+      <c r="G10" s="28">
         <v>45958</v>
       </c>
       <c r="H10" s="18">
         <v>45960</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c r="J10" s="3" t="str">
         <v>Бердникова Екатерина Мх</v>
@@ -2260,13 +2266,13 @@
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="14">
         <v>101</v>
@@ -2275,16 +2281,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="29">
+        <v>47</v>
+      </c>
+      <c r="G11" s="28">
         <v>45958</v>
       </c>
       <c r="H11" s="21">
         <v>45945</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c r="J11" s="4" t="str">
         <v>Хайретдинов Булат Мх</v>
@@ -2296,13 +2302,13 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="14">
         <v>110</v>
@@ -2311,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="18">
         <v>45944</v>
@@ -2320,7 +2326,7 @@
         <v>45945</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3" t="str">
         <v>Матвеева Дарья Мх</v>
@@ -2332,13 +2338,13 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3">
         <v>110</v>
@@ -2347,7 +2353,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" s="18">
         <v>45951</v>
@@ -2356,7 +2362,7 @@
         <v>45960</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J13" s="3" t="str">
         <v>Иванов Илья ПМ</v>
@@ -2368,13 +2374,13 @@
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3">
         <v>111</v>
@@ -2383,16 +2389,16 @@
         <v>10</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="28">
+        <v>60</v>
+      </c>
+      <c r="G14" s="27">
         <v>45951</v>
       </c>
       <c r="H14" s="18">
         <v>45960</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>156</v>
+      <c r="I14" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="J14" s="7" t="str">
         <v>Макатов Владислав Мх</v>
@@ -2404,13 +2410,13 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3">
         <v>112</v>
@@ -2419,16 +2425,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G15" s="21">
         <v>45944</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>45945</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>12</v>
+      <c r="I15" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="J15" s="3" t="str">
         <v>Пинигин Павел ПМ</v>
@@ -2440,13 +2446,13 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D16" s="14">
         <v>112</v>
@@ -2455,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G16" s="18">
         <v>45951</v>
@@ -2464,7 +2470,7 @@
         <v>45960</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J16" s="3" t="str">
         <v>Захаров Андрей Мх</v>
@@ -2475,23 +2481,23 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="A17" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="37">
         <v>121</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>66</v>
+      <c r="E17" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G17" s="21">
         <v>45944</v>
@@ -2500,7 +2506,7 @@
         <v>45945</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="J17" s="3" t="str">
         <v>Карасс Виталий Мх</v>
@@ -2511,23 +2517,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="A18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="37">
         <v>145</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>66</v>
+      <c r="E18" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G18" s="19">
         <v>45944</v>
@@ -2536,7 +2542,7 @@
         <v>45945</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="J18" s="3" t="str">
         <v>Кинева Анна Мх</v>
@@ -2548,13 +2554,13 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D19" s="14">
         <v>148</v>
@@ -2563,16 +2569,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="30">
-        <v>45951</v>
+        <v>14</v>
+      </c>
+      <c r="G19" s="44">
+        <v>45979</v>
       </c>
       <c r="H19" s="18">
         <v>45938</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>33</v>
+      <c r="I19" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="3" t="str">
         <v>Михайлова Юлия Мх</v>
@@ -2584,13 +2590,13 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D20" s="14">
         <v>148</v>
@@ -2599,16 +2605,16 @@
         <v>9</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="30">
-        <v>45951</v>
+        <v>14</v>
+      </c>
+      <c r="G20" s="44">
+        <v>45979</v>
       </c>
       <c r="H20" s="18">
         <v>45938</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>33</v>
+      <c r="I20" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="3" t="str">
         <v>Корниенко Михаил Мх</v>
@@ -2620,13 +2626,13 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D21" s="14">
         <v>150</v>
@@ -2635,16 +2641,16 @@
         <v>18</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="30">
-        <v>45951</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="44">
+        <v>45979</v>
       </c>
       <c r="H21" s="18">
         <v>45938</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>80</v>
+      <c r="I21" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="J21" s="3" t="str">
         <v>Черняева Милана ПМ</v>
@@ -2656,13 +2662,13 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D22" s="14">
         <v>150</v>
@@ -2671,16 +2677,16 @@
         <v>10</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="30">
-        <v>45951</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="44">
+        <v>45979</v>
       </c>
       <c r="H22" s="18">
         <v>45932</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>84</v>
+      <c r="I22" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="J22" s="9" t="str">
         <v>Матвиевский Арсений Мх</v>
@@ -2692,13 +2698,13 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D23" s="3">
         <v>151</v>
@@ -2707,16 +2713,16 @@
         <v>30</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="30">
+        <v>95</v>
+      </c>
+      <c r="G23" s="29">
         <v>45951</v>
       </c>
       <c r="H23" s="18">
         <v>45943</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>377</v>
+        <v>96</v>
       </c>
       <c r="J23" s="3" t="str">
         <v>Зарипов Тимур Мх</v>
@@ -2728,13 +2734,13 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3">
         <v>152</v>
@@ -2743,16 +2749,16 @@
         <v>8</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="30">
+        <v>100</v>
+      </c>
+      <c r="G24" s="44">
         <v>45951</v>
       </c>
       <c r="H24" s="21">
         <v>45945</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>33</v>
+      <c r="I24" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="J24" s="3" t="str">
         <v>Барахнина Екатерина ПМ</v>
@@ -2764,13 +2770,13 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3">
         <v>153</v>
@@ -2778,17 +2784,17 @@
       <c r="E25" s="3">
         <v>10</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="30">
+      <c r="F25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="44">
         <v>45951</v>
       </c>
       <c r="H25" s="21">
         <v>45945</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>33</v>
+      <c r="I25" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="J25" s="3" t="str">
         <v>Варлакова Александра ПМ</v>
@@ -2800,13 +2806,13 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3">
         <v>155</v>
@@ -2814,17 +2820,17 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="30">
+      <c r="F26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="44">
         <v>45951</v>
       </c>
       <c r="H26" s="21">
         <v>45945</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>33</v>
+      <c r="I26" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="J26" s="3" t="str">
         <v>Гаврилюк Екатерина ПМ</v>
@@ -2836,13 +2842,13 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
         <v>155</v>
@@ -2850,17 +2856,17 @@
       <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="30">
+      <c r="F27" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="29">
         <v>45951</v>
       </c>
       <c r="H27" s="21">
         <v>45950</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J27" s="3" t="str">
         <v xml:space="preserve">Юрьева Елизавета ПМ </v>
@@ -2872,13 +2878,13 @@
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D28" s="3">
         <v>161</v>
@@ -2887,16 +2893,16 @@
         <v>9</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="30">
+        <v>110</v>
+      </c>
+      <c r="G28" s="29">
         <v>45951</v>
       </c>
-      <c r="H28" s="21">
-        <v>45950</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>102</v>
+      <c r="H28" s="18">
+        <v>45981</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="J28" s="3" t="str">
         <v>Иванова Анастасия Мх</v>
@@ -2908,13 +2914,13 @@
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D29" s="14">
         <v>161</v>
@@ -2922,17 +2928,17 @@
       <c r="E29" s="14">
         <v>22</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="28">
-        <v>45951</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="F29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="27">
         <v>45950</v>
       </c>
+      <c r="H29" s="18">
+        <v>45981</v>
+      </c>
       <c r="I29" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" s="3" t="str">
         <v>Зарубина Дарья ПМ</v>
@@ -2944,13 +2950,13 @@
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D30" s="14">
         <v>162</v>
@@ -2958,17 +2964,17 @@
       <c r="E30" s="14">
         <v>8</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="31">
-        <v>45958</v>
-      </c>
-      <c r="H30" s="21">
+      <c r="F30" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="18">
         <v>45950</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>19</v>
+      <c r="H30" s="18">
+        <v>45981</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="J30" s="6" t="str">
         <v>Баранова Дарья ПМ</v>
@@ -2979,23 +2985,23 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="38">
+      <c r="A31" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="37">
         <v>163</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <v>15</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G31" s="18">
         <v>45972</v>
@@ -3003,8 +3009,8 @@
       <c r="H31" s="18">
         <v>45972</v>
       </c>
-      <c r="I31" s="39" t="s">
-        <v>174</v>
+      <c r="I31" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="J31" s="3" t="str">
         <v>Тудвасева Кристина Мх</v>
@@ -3015,23 +3021,23 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="38">
+      <c r="A32" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="37">
         <v>183</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>15</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G32" s="18">
         <v>45972</v>
@@ -3039,8 +3045,8 @@
       <c r="H32" s="18">
         <v>45972</v>
       </c>
-      <c r="I32" s="39" t="s">
-        <v>174</v>
+      <c r="I32" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>Норицина Арина Мх</v>
@@ -3052,13 +3058,13 @@
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D33" s="14">
         <v>242</v>
@@ -3066,17 +3072,17 @@
       <c r="E33" s="14">
         <v>13</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>121</v>
+      <c r="F33" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="G33" s="18">
-        <v>45972</v>
-      </c>
-      <c r="H33" s="40">
-        <v>45978</v>
+        <v>45979</v>
+      </c>
+      <c r="H33" s="44">
+        <v>45981</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="J33" s="3" t="str">
         <v>Копылов Кирилл Мх</v>
@@ -3088,13 +3094,13 @@
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D34" s="14">
         <v>243</v>
@@ -3102,17 +3108,17 @@
       <c r="E34" s="14">
         <v>12</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>121</v>
+      <c r="F34" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="G34" s="18">
-        <v>45972</v>
-      </c>
-      <c r="H34" s="40">
-        <v>45978</v>
+        <v>45979</v>
+      </c>
+      <c r="H34" s="44">
+        <v>45981</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="J34" s="3" t="str">
         <v>Рыжова Ульяна Мх</v>
@@ -3124,13 +3130,13 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D35" s="14">
         <v>243</v>
@@ -3138,17 +3144,17 @@
       <c r="E35" s="14">
         <v>11</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="36">
-        <v>45958</v>
-      </c>
-      <c r="H35" s="21">
-        <v>45978</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>33</v>
+      <c r="F35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="21">
+        <v>45981</v>
+      </c>
+      <c r="H35" s="44">
+        <v>45981</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="J35" s="6" t="str">
         <v>Суханова Анастасия ПМ</v>
@@ -3160,13 +3166,13 @@
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D36" s="3">
         <v>244</v>
@@ -3175,16 +3181,16 @@
         <v>14</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="31">
+        <v>142</v>
+      </c>
+      <c r="G36" s="30">
         <v>45958</v>
       </c>
       <c r="H36" s="21">
         <v>45952</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>Глезденев Александр ПМ</v>
@@ -3196,13 +3202,13 @@
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D37" s="3">
         <v>244</v>
@@ -3211,16 +3217,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="31">
+        <v>142</v>
+      </c>
+      <c r="G37" s="30">
         <v>45958</v>
       </c>
       <c r="H37" s="21">
         <v>45952</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="J37" s="4" t="str">
         <v>Иванова Мария ПМ</v>
@@ -3232,13 +3238,13 @@
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D38" s="3">
         <v>254</v>
@@ -3247,16 +3253,16 @@
         <v>9</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="36">
+        <v>150</v>
+      </c>
+      <c r="G38" s="35">
         <v>45958</v>
       </c>
       <c r="H38" s="21">
         <v>45952</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J38" s="3" t="str">
         <v>Русских Анастасия Мх</v>
@@ -3268,13 +3274,13 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D39" s="3">
         <v>254</v>
@@ -3283,16 +3289,16 @@
         <v>28</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="36">
+        <v>150</v>
+      </c>
+      <c r="G39" s="35">
         <v>45958</v>
       </c>
       <c r="H39" s="21">
         <v>45952</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J39" s="4" t="str">
         <v>Тулумгузина Дарья ПМ</v>
@@ -3304,13 +3310,13 @@
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D40" s="3">
         <v>255</v>
@@ -3318,17 +3324,17 @@
       <c r="E40" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="31">
+      <c r="F40" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="30">
         <v>45958</v>
       </c>
       <c r="H40" s="21">
         <v>45952</v>
       </c>
-      <c r="I40" s="35" t="s">
-        <v>12</v>
+      <c r="I40" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="J40" s="6" t="str">
         <v>Миниахметов Тагир Мх</v>
@@ -3340,13 +3346,13 @@
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D41" s="3">
         <v>255</v>
@@ -3355,16 +3361,16 @@
         <v>3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="31">
+        <v>160</v>
+      </c>
+      <c r="G41" s="30">
         <v>45958</v>
       </c>
       <c r="H41" s="21">
         <v>45952</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J41" s="4" t="str">
         <v>Миниахметво Тагир Мх</v>
@@ -3376,13 +3382,13 @@
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D42" s="3">
         <v>255</v>
@@ -3391,16 +3397,16 @@
         <v>3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="31">
+        <v>160</v>
+      </c>
+      <c r="G42" s="30">
         <v>45958</v>
       </c>
       <c r="H42" s="21">
         <v>45952</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J42" s="3" t="str">
         <v>Пашацкий Никита ПМ</v>
@@ -3412,13 +3418,13 @@
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D43" s="3">
         <v>256</v>
@@ -3427,16 +3433,16 @@
         <v>3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="31">
+        <v>160</v>
+      </c>
+      <c r="G43" s="30">
         <v>45958</v>
       </c>
       <c r="H43" s="21">
         <v>45952</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J43" s="6" t="str">
         <v>Пестерев Матвей Мх</v>
@@ -3448,13 +3454,13 @@
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D44" s="3">
         <v>256</v>
@@ -3463,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="G44" s="18">
         <v>45972</v>
@@ -3471,8 +3477,8 @@
       <c r="H44" s="21">
         <v>45952</v>
       </c>
-      <c r="I44" s="35" t="s">
-        <v>12</v>
+      <c r="I44" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="J44" t="str">
         <v>Зайнышев Замир Мх</v>
@@ -3484,13 +3490,13 @@
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D45" s="3">
         <v>258</v>
@@ -3498,17 +3504,17 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="31">
+      <c r="F45" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="30">
         <v>45958</v>
       </c>
       <c r="H45" s="21">
         <v>45952</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="J45" t="str">
         <v>Пруденко Дарья ПМ</v>
@@ -3520,13 +3526,13 @@
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D46" s="14">
         <v>259</v>
@@ -3535,16 +3541,16 @@
         <v>30</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="36">
+        <v>174</v>
+      </c>
+      <c r="G46" s="35">
         <v>45958</v>
       </c>
       <c r="H46" s="18">
         <v>45960</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J46" t="str">
         <v>Попов Николай ПМ</v>
@@ -3556,13 +3562,13 @@
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D47" s="3">
         <v>263</v>
@@ -3570,8 +3576,8 @@
       <c r="E47" s="3">
         <v>30</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>167</v>
+      <c r="F47" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="G47" s="18">
         <v>45974</v>
@@ -3580,7 +3586,7 @@
         <v>45952</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J47" t="str">
         <v>Торопов Егор Сергеевич ПМ</v>
@@ -3592,13 +3598,13 @@
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D48" s="3">
         <v>265</v>
@@ -3607,16 +3613,16 @@
         <v>7</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="31">
+        <v>178</v>
+      </c>
+      <c r="G48" s="30">
         <v>45972</v>
       </c>
       <c r="H48" s="21">
         <v>45967</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J48" t="str">
         <v>Анкушин Иван ПМ</v>
@@ -3628,13 +3634,13 @@
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D49" s="3">
         <v>266</v>
@@ -3643,16 +3649,16 @@
         <v>5</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="31">
-        <v>45972</v>
+        <v>178</v>
+      </c>
+      <c r="G49" s="18">
+        <v>45979</v>
       </c>
       <c r="H49" s="21">
         <v>45967</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>33</v>
+      <c r="I49" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="J49" t="str">
         <v>Дизендорф Андрей Константинович ПМ</v>
@@ -3664,13 +3670,13 @@
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D50" s="3">
         <v>266</v>
@@ -3678,17 +3684,17 @@
       <c r="E50" s="3">
         <v>12</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="31">
-        <v>45972</v>
+      <c r="F50" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="18">
+        <v>45979</v>
       </c>
       <c r="H50" s="21">
         <v>45967</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="J50" t="str">
         <v>Панкратова Анна ПМ</v>
@@ -3700,13 +3706,13 @@
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D51" s="3">
         <v>268</v>
@@ -3715,27 +3721,27 @@
         <v>31</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="31">
+        <v>188</v>
+      </c>
+      <c r="G51" s="30">
         <v>45972</v>
       </c>
       <c r="H51" s="21">
         <v>45967</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D52" s="3">
         <v>270</v>
@@ -3744,27 +3750,27 @@
         <v>16</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="31">
+        <v>124</v>
+      </c>
+      <c r="G52" s="30">
         <v>45972</v>
       </c>
       <c r="H52" s="21">
         <v>45967</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D53" s="3">
         <v>272</v>
@@ -3773,27 +3779,27 @@
         <v>19</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="31">
+        <v>132</v>
+      </c>
+      <c r="G53" s="30">
         <v>45972</v>
       </c>
       <c r="H53" s="21">
         <v>45967</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D54" s="3">
         <v>273</v>
@@ -3802,27 +3808,27 @@
         <v>16</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G54" s="31">
+        <v>132</v>
+      </c>
+      <c r="G54" s="30">
         <v>45972</v>
       </c>
       <c r="H54" s="21">
         <v>45967</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D55" s="3">
         <v>274</v>
@@ -3831,27 +3837,27 @@
         <v>30</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" s="31">
+        <v>174</v>
+      </c>
+      <c r="G55" s="30">
         <v>45972</v>
       </c>
       <c r="H55" s="21">
         <v>45967</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D56" s="3">
         <v>284</v>
@@ -3859,28 +3865,28 @@
       <c r="E56" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="31">
+      <c r="F56" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="30">
         <v>45972</v>
       </c>
       <c r="H56" s="21">
         <v>45967</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3">
         <v>287</v>
@@ -3889,27 +3895,27 @@
         <v>41</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="31">
+        <v>56</v>
+      </c>
+      <c r="G57" s="30">
         <v>45972</v>
       </c>
       <c r="H57" s="21">
         <v>45967</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D58" s="3">
         <v>291</v>
@@ -3918,27 +3924,27 @@
         <v>17</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="31">
+        <v>211</v>
+      </c>
+      <c r="G58" s="30">
         <v>45972</v>
       </c>
       <c r="H58" s="21">
         <v>45967</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D59" s="3">
         <v>292</v>
@@ -3947,27 +3953,27 @@
         <v>5</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="31">
+        <v>160</v>
+      </c>
+      <c r="G59" s="30">
         <v>45972</v>
       </c>
       <c r="H59" s="21">
         <v>45967</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D60" s="3">
         <v>292</v>
@@ -3976,27 +3982,27 @@
         <v>32</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" s="31">
+        <v>36</v>
+      </c>
+      <c r="G60" s="30">
         <v>45972</v>
       </c>
       <c r="H60" s="21">
         <v>45967</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D61" s="3">
         <v>301</v>
@@ -4005,27 +4011,27 @@
         <v>42</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="31">
+        <v>221</v>
+      </c>
+      <c r="G61" s="30">
         <v>45972</v>
       </c>
       <c r="H61" s="21">
         <v>45967</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D62" s="3">
         <v>304</v>
@@ -4033,28 +4039,28 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62" s="31">
+      <c r="F62" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="30">
         <v>45972</v>
       </c>
       <c r="H62" s="21">
         <v>45967</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D63" s="3">
         <v>305</v>
@@ -4062,28 +4068,28 @@
       <c r="E63" s="3">
         <v>15</v>
       </c>
-      <c r="F63" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G63" s="31">
+      <c r="F63" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="21">
         <v>45972</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="18">
         <v>45966</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D64" s="3">
         <v>313</v>
@@ -4091,28 +4097,28 @@
       <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="F64" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G64" s="31">
+      <c r="F64" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="30">
         <v>45972</v>
       </c>
       <c r="H64" s="21">
         <v>45966</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D65" s="3">
         <v>313</v>
@@ -4120,28 +4126,28 @@
       <c r="E65" s="3">
         <v>13</v>
       </c>
-      <c r="F65" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G65" s="31">
+      <c r="F65" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="30">
         <v>45972</v>
       </c>
       <c r="H65" s="21">
         <v>45966</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D66" s="3">
         <v>314</v>
@@ -4149,28 +4155,28 @@
       <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="F66" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="G66" s="31">
+      <c r="F66" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="30">
         <v>45972</v>
       </c>
       <c r="H66" s="21">
         <v>45966</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D67" s="3">
         <v>314</v>
@@ -4178,28 +4184,28 @@
       <c r="E67" s="3">
         <v>12</v>
       </c>
-      <c r="F67" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="G67" s="31">
+      <c r="F67" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G67" s="30">
         <v>45972</v>
       </c>
       <c r="H67" s="21">
         <v>45966</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D68" s="3">
         <v>315</v>
@@ -4208,27 +4214,27 @@
         <v>12</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="31">
+        <v>160</v>
+      </c>
+      <c r="G68" s="30">
         <v>45972</v>
       </c>
       <c r="H68" s="21">
         <v>45966</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D69" s="3">
         <v>327</v>
@@ -4237,27 +4243,27 @@
         <v>20</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="31">
+        <v>61</v>
+      </c>
+      <c r="G69" s="30">
         <v>45972</v>
       </c>
       <c r="H69" s="21">
         <v>45966</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D70" s="3">
         <v>329</v>
@@ -4266,27 +4272,27 @@
         <v>18</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G70" s="31">
+        <v>252</v>
+      </c>
+      <c r="G70" s="30">
         <v>45972</v>
       </c>
       <c r="H70" s="21">
         <v>45966</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D71" s="3">
         <v>329</v>
@@ -4294,28 +4300,28 @@
       <c r="E71" s="3">
         <v>5</v>
       </c>
-      <c r="F71" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G71" s="31">
+      <c r="F71" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="30">
         <v>45972</v>
       </c>
       <c r="H71" s="21">
         <v>45966</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D72" s="3">
         <v>329</v>
@@ -4323,28 +4329,28 @@
       <c r="E72" s="3">
         <v>17</v>
       </c>
-      <c r="F72" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" s="31">
+      <c r="F72" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G72" s="30">
         <v>45972</v>
       </c>
       <c r="H72" s="21">
         <v>45966</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D73" s="3">
         <v>331</v>
@@ -4352,28 +4358,28 @@
       <c r="E73" s="3">
         <v>14</v>
       </c>
-      <c r="F73" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G73" s="31">
+      <c r="F73" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="30">
         <v>45972</v>
       </c>
       <c r="H73" s="21">
         <v>45966</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D74" s="3">
         <v>331</v>
@@ -4382,27 +4388,27 @@
         <v>5</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G74" s="31">
+        <v>43</v>
+      </c>
+      <c r="G74" s="30">
         <v>45972</v>
       </c>
       <c r="H74" s="21">
         <v>45966</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D75" s="3">
         <v>332</v>
@@ -4411,27 +4417,27 @@
         <v>28</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G75" s="31">
+        <v>43</v>
+      </c>
+      <c r="G75" s="30">
         <v>45972</v>
       </c>
       <c r="H75" s="21">
         <v>45966</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3">
         <v>333</v>
@@ -4440,27 +4446,27 @@
         <v>3</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G76" s="31">
+        <v>272</v>
+      </c>
+      <c r="G76" s="30">
         <v>45972</v>
       </c>
       <c r="H76" s="21">
         <v>45966</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D77" s="3">
         <v>333</v>
@@ -4469,27 +4475,27 @@
         <v>9</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="31">
+        <v>160</v>
+      </c>
+      <c r="G77" s="30">
         <v>45972</v>
       </c>
       <c r="H77" s="21">
         <v>45966</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D78" s="3">
         <v>334</v>
@@ -4497,8 +4503,8 @@
       <c r="E78" s="3">
         <v>13</v>
       </c>
-      <c r="F78" s="34" t="s">
-        <v>84</v>
+      <c r="F78" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="G78" s="24">
         <v>45979</v>
@@ -4507,18 +4513,18 @@
         <v>45973</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D79" s="3">
         <v>336</v>
@@ -4526,8 +4532,8 @@
       <c r="E79" s="3">
         <v>15</v>
       </c>
-      <c r="F79" s="34" t="s">
-        <v>84</v>
+      <c r="F79" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="G79" s="24">
         <v>45979</v>
@@ -4536,18 +4542,18 @@
         <v>45973</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D80" s="3">
         <v>336</v>
@@ -4555,8 +4561,8 @@
       <c r="E80" s="3">
         <v>6</v>
       </c>
-      <c r="F80" s="41" t="s">
-        <v>250</v>
+      <c r="F80" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="G80" s="24">
         <v>45979</v>
@@ -4564,19 +4570,19 @@
       <c r="H80" s="21">
         <v>45973</v>
       </c>
-      <c r="I80" s="37" t="s">
-        <v>33</v>
+      <c r="I80" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D81" s="3">
         <v>337</v>
@@ -4584,8 +4590,8 @@
       <c r="E81" s="3">
         <v>4</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>279</v>
+      <c r="F81" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="G81" s="24">
         <v>45979</v>
@@ -4594,18 +4600,18 @@
         <v>45973</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D82" s="3">
         <v>337</v>
@@ -4613,8 +4619,8 @@
       <c r="E82" s="3">
         <v>5</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>216</v>
+      <c r="F82" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="G82" s="24">
         <v>45979</v>
@@ -4622,19 +4628,19 @@
       <c r="H82" s="21">
         <v>45973</v>
       </c>
-      <c r="I82" s="37" t="s">
-        <v>33</v>
+      <c r="I82" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D83" s="3">
         <v>343</v>
@@ -4642,8 +4648,8 @@
       <c r="E83" s="3">
         <v>25</v>
       </c>
-      <c r="F83" s="41" t="s">
-        <v>250</v>
+      <c r="F83" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="G83" s="24">
         <v>45979</v>
@@ -4652,18 +4658,18 @@
         <v>45973</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D84" s="3">
         <v>344</v>
@@ -4671,8 +4677,8 @@
       <c r="E84" s="3">
         <v>9</v>
       </c>
-      <c r="F84" s="33" t="s">
-        <v>289</v>
+      <c r="F84" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="G84" s="24">
         <v>45979</v>
@@ -4681,18 +4687,18 @@
         <v>45973</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D85" s="3">
         <v>346</v>
@@ -4700,8 +4706,8 @@
       <c r="E85" s="3">
         <v>11</v>
       </c>
-      <c r="F85" s="41" t="s">
-        <v>216</v>
+      <c r="F85" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="G85" s="24">
         <v>45979</v>
@@ -4709,19 +4715,19 @@
       <c r="H85" s="21">
         <v>45973</v>
       </c>
-      <c r="I85" s="37" t="s">
-        <v>33</v>
+      <c r="I85" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D86" s="3">
         <v>354</v>
@@ -4730,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G86" s="24">
         <v>45979</v>
@@ -4738,19 +4744,19 @@
       <c r="H86" s="21">
         <v>45973</v>
       </c>
-      <c r="I86" s="37" t="s">
-        <v>12</v>
+      <c r="I86" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D87" s="14">
         <v>356</v>
@@ -4759,7 +4765,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G87" s="24">
         <v>45979</v>
@@ -4767,19 +4773,19 @@
       <c r="H87" s="21">
         <v>45973</v>
       </c>
-      <c r="I87" s="37" t="s">
-        <v>12</v>
+      <c r="I87" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D88" s="3">
         <v>357</v>
@@ -4788,7 +4794,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G88" s="24">
         <v>45979</v>
@@ -4796,19 +4802,19 @@
       <c r="H88" s="21">
         <v>45973</v>
       </c>
-      <c r="I88" s="37" t="s">
-        <v>12</v>
+      <c r="I88" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D89" s="3">
         <v>357</v>
@@ -4817,7 +4823,7 @@
         <v>13</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G89" s="24">
         <v>45979</v>
@@ -4825,19 +4831,19 @@
       <c r="H89" s="21">
         <v>45973</v>
       </c>
-      <c r="I89" s="37" t="s">
-        <v>12</v>
+      <c r="I89" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D90" s="3">
         <v>360</v>
@@ -4845,8 +4851,8 @@
       <c r="E90" s="3">
         <v>16</v>
       </c>
-      <c r="F90" s="41" t="s">
-        <v>309</v>
+      <c r="F90" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="G90" s="24">
         <v>45979</v>
@@ -4854,19 +4860,19 @@
       <c r="H90" s="21">
         <v>45973</v>
       </c>
-      <c r="I90" s="37" t="s">
-        <v>33</v>
+      <c r="I90" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D91" s="3">
         <v>362</v>
@@ -4874,8 +4880,8 @@
       <c r="E91" s="3">
         <v>23</v>
       </c>
-      <c r="F91" s="41" t="s">
-        <v>309</v>
+      <c r="F91" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="G91" s="24">
         <v>45979</v>
@@ -4883,19 +4889,19 @@
       <c r="H91" s="21">
         <v>45973</v>
       </c>
-      <c r="I91" s="37" t="s">
-        <v>33</v>
+      <c r="I91" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D92" s="3">
         <v>364</v>
@@ -4903,8 +4909,8 @@
       <c r="E92" s="3">
         <v>5</v>
       </c>
-      <c r="F92" s="34" t="s">
-        <v>316</v>
+      <c r="F92" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="G92" s="24">
         <v>45979</v>
@@ -4913,18 +4919,18 @@
         <v>45973</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D93" s="3">
         <v>364</v>
@@ -4933,7 +4939,7 @@
         <v>25</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="G93" s="13">
         <v>45986</v>
@@ -4942,18 +4948,18 @@
         <v>45981</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D94" s="3">
         <v>366</v>
@@ -4962,7 +4968,7 @@
         <v>21</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G94" s="13">
         <v>45986</v>
@@ -4971,18 +4977,18 @@
         <v>45981</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D95" s="3">
         <v>367</v>
@@ -4991,7 +4997,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G95" s="13">
         <v>45986</v>
@@ -4999,19 +5005,19 @@
       <c r="H95" s="16">
         <v>45981</v>
       </c>
-      <c r="I95" s="37" t="s">
-        <v>12</v>
+      <c r="I95" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D96" s="3">
         <v>368</v>
@@ -5020,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G96" s="13">
         <v>45986</v>
@@ -5029,18 +5035,18 @@
         <v>45981</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D97" s="3">
         <v>367</v>
@@ -5049,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G97" s="13">
         <v>45986</v>
@@ -5058,18 +5064,18 @@
         <v>45981</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D98" s="3">
         <v>367</v>
@@ -5078,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G98" s="13">
         <v>45986</v>
@@ -5086,19 +5092,19 @@
       <c r="H98" s="16">
         <v>45981</v>
       </c>
-      <c r="I98" s="37" t="s">
-        <v>12</v>
+      <c r="I98" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D99" s="3">
         <v>368</v>
@@ -5107,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G99" s="13">
         <v>45986</v>
@@ -5115,19 +5121,19 @@
       <c r="H99" s="16">
         <v>45981</v>
       </c>
-      <c r="I99" s="37" t="s">
-        <v>12</v>
+      <c r="I99" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D100" s="3">
         <v>370</v>
@@ -5136,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="G100" s="13">
         <v>45986</v>
@@ -5144,19 +5150,19 @@
       <c r="H100" s="16">
         <v>45981</v>
       </c>
-      <c r="I100" s="43" t="s">
-        <v>263</v>
+      <c r="I100" s="42" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D101" s="3">
         <v>377</v>
@@ -5165,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="G101" s="13">
         <v>45986</v>
@@ -5173,19 +5179,19 @@
       <c r="H101" s="16">
         <v>45981</v>
       </c>
-      <c r="I101" s="43" t="s">
-        <v>263</v>
+      <c r="I101" s="42" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D102" s="3">
         <v>377</v>
@@ -5194,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G102" s="13">
         <v>45986</v>
@@ -5203,18 +5209,18 @@
         <v>45981</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D103" s="3">
         <v>384</v>
@@ -5223,7 +5229,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G103" s="13">
         <v>45986</v>
@@ -5231,19 +5237,19 @@
       <c r="H103" s="16">
         <v>45981</v>
       </c>
-      <c r="I103" s="37" t="s">
-        <v>12</v>
+      <c r="I103" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D104" s="3">
         <v>384</v>
@@ -5252,7 +5258,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G104" s="13">
         <v>45986</v>
@@ -5261,18 +5267,18 @@
         <v>45981</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D105" s="3">
         <v>465</v>
@@ -5281,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G105" s="13">
         <v>45986</v>
@@ -5290,18 +5296,18 @@
         <v>45981</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D106" s="3">
         <v>470</v>
@@ -5310,7 +5316,7 @@
         <v>24</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G106" s="13">
         <v>45986</v>
@@ -5319,18 +5325,18 @@
         <v>45981</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D107" s="3">
         <v>475</v>
@@ -5339,7 +5345,7 @@
         <v>37</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G107" s="13">
         <v>45986</v>
@@ -5347,13 +5353,13 @@
       <c r="H107" s="16">
         <v>45981</v>
       </c>
-      <c r="I107" s="37" t="s">
-        <v>12</v>
+      <c r="I107" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E108" s="3">
         <f>SUM(E19:E107)</f>
@@ -5362,10 +5368,10 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E109" s="3">
         <v>20</v>
@@ -5373,10 +5379,10 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E110" s="3">
         <v>27</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E111" s="3">
         <f>SUM(E109:E110)</f>
@@ -5393,7 +5399,7 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E112" s="3">
         <f>E108/E111</f>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B79F663-8DD7-4CED-8F8E-C28A0347729F}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7E2A1B-E206-44D5-918A-E6B3B34063B0}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="150" windowWidth="25320" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="615" windowWidth="19710" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1298,6 +1298,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1361,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1484,6 +1491,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,10 +1681,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,10 +1902,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1948,19 +1957,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="14">
         <v>26</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="14">
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -1985,19 +1994,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="14">
         <v>67</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="14">
         <v>13</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -2712,11 +2721,11 @@
       <c r="E23" s="3">
         <v>30</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="29">
-        <v>45951</v>
+      <c r="G23" s="44">
+        <v>45986</v>
       </c>
       <c r="H23" s="18">
         <v>45943</v>
@@ -3237,19 +3246,19 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="14">
         <v>254</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="14">
         <v>9</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -3273,19 +3282,19 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="14">
         <v>254</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="14">
         <v>28</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -3504,11 +3513,11 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="30">
-        <v>45958</v>
+      <c r="G45" s="44">
+        <v>45986</v>
       </c>
       <c r="H45" s="21">
         <v>45952</v>
@@ -3720,11 +3729,11 @@
       <c r="E51" s="3">
         <v>31</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="30">
-        <v>45972</v>
+      <c r="G51" s="18">
+        <v>45979</v>
       </c>
       <c r="H51" s="21">
         <v>45967</v>
@@ -3763,19 +3772,19 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="14">
         <v>272</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="14">
         <v>19</v>
       </c>
       <c r="F53" s="15" t="s">
@@ -3792,19 +3801,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="14">
         <v>273</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="14">
         <v>16</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -3865,11 +3874,11 @@
       <c r="E56" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G56" s="30">
-        <v>45972</v>
+      <c r="G56" s="18">
+        <v>45986</v>
       </c>
       <c r="H56" s="21">
         <v>45967</v>
@@ -3966,26 +3975,26 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="14">
         <v>292</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="14">
         <v>32</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="30">
-        <v>45972</v>
+      <c r="G60" s="18">
+        <v>45986</v>
       </c>
       <c r="H60" s="21">
         <v>45967</v>
@@ -4097,14 +4106,14 @@
       <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="45" t="s">
         <v>229</v>
       </c>
       <c r="G64" s="30">
         <v>45972</v>
       </c>
-      <c r="H64" s="21">
-        <v>45966</v>
+      <c r="H64" s="18">
+        <v>45988</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>101</v>
@@ -4213,7 +4222,7 @@
       <c r="E68" s="3">
         <v>12</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="20" t="s">
         <v>160</v>
       </c>
       <c r="G68" s="30">
@@ -4741,11 +4750,11 @@
       <c r="G86" s="24">
         <v>45979</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="18">
         <v>45973</v>
       </c>
-      <c r="I86" s="36" t="s">
-        <v>66</v>
+      <c r="I86" s="17" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4764,62 +4773,62 @@
       <c r="E87" s="14">
         <v>19</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="17" t="s">
         <v>300</v>
       </c>
       <c r="G87" s="24">
         <v>45979</v>
       </c>
-      <c r="H87" s="21">
-        <v>45973</v>
-      </c>
-      <c r="I87" s="36" t="s">
-        <v>66</v>
+      <c r="H87" s="18">
+        <v>45988</v>
+      </c>
+      <c r="I87" s="47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="14">
         <v>357</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="14">
         <v>10</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="17" t="s">
         <v>300</v>
       </c>
       <c r="G88" s="24">
         <v>45979</v>
       </c>
-      <c r="H88" s="21">
-        <v>45973</v>
-      </c>
-      <c r="I88" s="36" t="s">
-        <v>66</v>
+      <c r="H88" s="18">
+        <v>45988</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="14">
         <v>357</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="14">
         <v>13</v>
       </c>
       <c r="F89" s="15" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1000" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7E2A1B-E206-44D5-918A-E6B3B34063B0}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3455C3C-B4C5-42F4-B17D-6059287B8E56}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="615" windowWidth="19710" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="825" windowWidth="22200" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1305,6 +1305,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1368,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1497,6 +1505,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1685,7 +1699,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}" name="Таблица1" displayName="Таблица1" ref="A1:I107" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:I107" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}"/>
+  <autoFilter ref="A1:I107" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}">
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2025" month="12" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{93552DC0-400C-4041-9CCE-C18FD2B6831E}" name="Листинг" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{9E9E2B49-CA37-44D6-8AE2-28CC5F771432}" name="Имя" dataDxfId="6"/>
@@ -1902,10 +1922,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
@@ -2129,7 +2149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -2201,7 +2221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -2273,7 +2293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2417,7 +2437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
@@ -2489,7 +2509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>70</v>
       </c>
@@ -2525,7 +2545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>70</v>
       </c>
@@ -2561,7 +2581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>70</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>82</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
@@ -2741,7 +2761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -2777,7 +2797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
@@ -2813,7 +2833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
@@ -2921,7 +2941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>115</v>
       </c>
@@ -2957,7 +2977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>118</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>121</v>
       </c>
@@ -3029,7 +3049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>125</v>
       </c>
@@ -3065,7 +3085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>128</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
@@ -3137,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>136</v>
       </c>
@@ -3170,7 +3190,7 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,16 +3209,16 @@
       <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="30">
-        <v>45958</v>
+      <c r="G36" s="18">
+        <v>45993</v>
       </c>
       <c r="H36" s="21">
         <v>45952</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="17" t="s">
         <v>143</v>
       </c>
       <c r="J36" s="4" t="str">
@@ -3206,7 +3226,7 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,16 +3245,16 @@
       <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="30">
-        <v>45958</v>
+      <c r="G37" s="18">
+        <v>45993</v>
       </c>
       <c r="H37" s="21">
         <v>45952</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="17" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="4" t="str">
@@ -3245,7 +3265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>147</v>
       </c>
@@ -3281,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>151</v>
       </c>
@@ -3317,7 +3337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -3353,7 +3373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>157</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
@@ -3425,7 +3445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>165</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>168</v>
       </c>
@@ -3533,7 +3553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>171</v>
       </c>
@@ -3569,7 +3589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>175</v>
       </c>
@@ -3605,7 +3625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>179</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>181</v>
       </c>
@@ -3677,7 +3697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>184</v>
       </c>
@@ -3713,7 +3733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3787,11 +3807,11 @@
       <c r="E53" s="14">
         <v>19</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="30">
-        <v>45972</v>
+      <c r="G53" s="18">
+        <v>45993</v>
       </c>
       <c r="H53" s="21">
         <v>45967</v>
@@ -3816,11 +3836,11 @@
       <c r="E54" s="14">
         <v>16</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="30">
-        <v>45972</v>
+      <c r="G54" s="18">
+        <v>45993</v>
       </c>
       <c r="H54" s="21">
         <v>45967</v>
@@ -3829,7 +3849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>198</v>
       </c>
@@ -3858,7 +3878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>201</v>
       </c>
@@ -3887,7 +3907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>205</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>208</v>
       </c>
@@ -3945,7 +3965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>212</v>
       </c>
@@ -3974,7 +3994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>215</v>
       </c>
@@ -4003,7 +4023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>218</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>222</v>
       </c>
@@ -4061,7 +4081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>226</v>
       </c>
@@ -4090,7 +4110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>230</v>
       </c>
@@ -4119,7 +4139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>233</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>236</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>240</v>
       </c>
@@ -4206,7 +4226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>243</v>
       </c>
@@ -4235,7 +4255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>246</v>
       </c>
@@ -4280,11 +4300,11 @@
       <c r="E70" s="3">
         <v>18</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G70" s="30">
-        <v>45972</v>
+      <c r="G70" s="18">
+        <v>45993</v>
       </c>
       <c r="H70" s="21">
         <v>45966</v>
@@ -4293,7 +4313,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>253</v>
       </c>
@@ -4322,7 +4342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -4367,11 +4387,11 @@
       <c r="E73" s="3">
         <v>14</v>
       </c>
-      <c r="F73" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G73" s="30">
-        <v>45972</v>
+      <c r="F73" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G73" s="18">
+        <v>45993</v>
       </c>
       <c r="H73" s="21">
         <v>45966</v>
@@ -4396,11 +4416,11 @@
       <c r="E74" s="3">
         <v>5</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G74" s="30">
-        <v>45972</v>
+      <c r="G74" s="18">
+        <v>45993</v>
       </c>
       <c r="H74" s="21">
         <v>45966</v>
@@ -4425,11 +4445,11 @@
       <c r="E75" s="3">
         <v>28</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G75" s="30">
-        <v>45972</v>
+      <c r="G75" s="18">
+        <v>45993</v>
       </c>
       <c r="H75" s="21">
         <v>45966</v>
@@ -4438,7 +4458,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>270</v>
       </c>
@@ -4467,7 +4487,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>274</v>
       </c>
@@ -4496,7 +4516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>277</v>
       </c>
@@ -4525,7 +4545,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>280</v>
       </c>
@@ -4554,7 +4574,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>284</v>
       </c>
@@ -4583,7 +4603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>287</v>
       </c>
@@ -4612,7 +4632,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>290</v>
       </c>
@@ -4641,7 +4661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>293</v>
       </c>
@@ -4670,7 +4690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>296</v>
       </c>
@@ -4699,7 +4719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>301</v>
       </c>
@@ -4744,11 +4764,11 @@
       <c r="E86" s="3">
         <v>9</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G86" s="24">
-        <v>45979</v>
+      <c r="G86" s="18">
+        <v>45993</v>
       </c>
       <c r="H86" s="18">
         <v>45973</v>
@@ -4757,7 +4777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>307</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>310</v>
       </c>
@@ -4815,7 +4835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>313</v>
       </c>
@@ -4844,7 +4864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>316</v>
       </c>
@@ -4873,7 +4893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>320</v>
       </c>
@@ -4902,7 +4922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>323</v>
       </c>
@@ -4931,7 +4951,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>327</v>
       </c>
@@ -4960,7 +4980,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>330</v>
       </c>
@@ -5005,11 +5025,11 @@
       <c r="E95" s="3">
         <v>16</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="13">
-        <v>45986</v>
+      <c r="G95" s="18">
+        <v>45993</v>
       </c>
       <c r="H95" s="16">
         <v>45981</v>
@@ -5018,7 +5038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>336</v>
       </c>
@@ -5047,7 +5067,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>339</v>
       </c>
@@ -5076,7 +5096,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>343</v>
       </c>
@@ -5105,7 +5125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>347</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>350</v>
       </c>
@@ -5163,7 +5183,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>353</v>
       </c>
@@ -5192,7 +5212,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>356</v>
       </c>
@@ -5221,7 +5241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>359</v>
       </c>
@@ -5250,7 +5270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>362</v>
       </c>
@@ -5279,7 +5299,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>365</v>
       </c>
@@ -5308,7 +5328,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>368</v>
       </c>
@@ -5337,7 +5357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>371</v>
       </c>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3455C3C-B4C5-42F4-B17D-6059287B8E56}"/>
+  <xr:revisionPtr revIDLastSave="1034" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B64CAD8E-E30D-4049-8527-44BA8C8C3D54}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="825" windowWidth="22200" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="1530" windowWidth="28050" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1699,13 +1699,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}" name="Таблица1" displayName="Таблица1" ref="A1:I107" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:I107" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}">
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2025" month="12" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I107" xr:uid="{5609EA63-45AF-4126-A392-111B73C106A8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{93552DC0-400C-4041-9CCE-C18FD2B6831E}" name="Листинг" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{9E9E2B49-CA37-44D6-8AE2-28CC5F771432}" name="Имя" dataDxfId="6"/>
@@ -1922,10 +1916,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1976,20 +1970,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="37">
         <v>26</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="37">
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -2013,20 +2007,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="37">
         <v>67</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="37">
         <v>13</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -2049,7 +2043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
@@ -2085,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -2257,7 +2251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -2293,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
@@ -2329,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -2365,7 +2359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -2401,7 +2395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2437,7 +2431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
@@ -2509,7 +2503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>70</v>
       </c>
@@ -2545,7 +2539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>70</v>
       </c>
@@ -2581,7 +2575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>70</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>82</v>
       </c>
@@ -2653,7 +2647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -2725,7 +2719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -2797,7 +2791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
@@ -2833,7 +2827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
@@ -2869,7 +2863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2905,7 +2899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>115</v>
       </c>
@@ -2977,7 +2971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>118</v>
       </c>
@@ -3013,7 +3007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>121</v>
       </c>
@@ -3049,7 +3043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>125</v>
       </c>
@@ -3085,7 +3079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>128</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>136</v>
       </c>
@@ -3265,7 +3259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>147</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>151</v>
       </c>
@@ -3337,7 +3331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>157</v>
       </c>
@@ -3409,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>157</v>
       </c>
@@ -3445,7 +3439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -3481,7 +3475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>165</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>168</v>
       </c>
@@ -3553,7 +3547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>171</v>
       </c>
@@ -3589,7 +3583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>175</v>
       </c>
@@ -3625,7 +3619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>179</v>
       </c>
@@ -3661,7 +3655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>181</v>
       </c>
@@ -3697,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>184</v>
       </c>
@@ -3733,7 +3727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3849,7 +3843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>198</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>201</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>205</v>
       </c>
@@ -3936,7 +3930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>208</v>
       </c>
@@ -3965,7 +3959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>212</v>
       </c>
@@ -3994,7 +3988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>215</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>218</v>
       </c>
@@ -4052,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>222</v>
       </c>
@@ -4081,7 +4075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>226</v>
       </c>
@@ -4110,7 +4104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>230</v>
       </c>
@@ -4139,7 +4133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>233</v>
       </c>
@@ -4168,7 +4162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>236</v>
       </c>
@@ -4197,7 +4191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>240</v>
       </c>
@@ -4226,7 +4220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>243</v>
       </c>
@@ -4255,7 +4249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>246</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>253</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>257</v>
       </c>
@@ -4458,7 +4452,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>270</v>
       </c>
@@ -4487,7 +4481,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>274</v>
       </c>
@@ -4516,7 +4510,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>277</v>
       </c>
@@ -4545,7 +4539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>280</v>
       </c>
@@ -4574,7 +4568,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>284</v>
       </c>
@@ -4603,7 +4597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>287</v>
       </c>
@@ -4632,7 +4626,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>290</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>293</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>296</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>301</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>307</v>
       </c>
@@ -4806,7 +4800,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>310</v>
       </c>
@@ -4835,7 +4829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>313</v>
       </c>
@@ -4864,7 +4858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>316</v>
       </c>
@@ -4893,7 +4887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>320</v>
       </c>
@@ -4922,7 +4916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>323</v>
       </c>
@@ -4951,7 +4945,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>327</v>
       </c>
@@ -4980,7 +4974,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>330</v>
       </c>
@@ -5038,7 +5032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>336</v>
       </c>
@@ -5067,7 +5061,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>339</v>
       </c>
@@ -5096,7 +5090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>343</v>
       </c>
@@ -5125,7 +5119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>347</v>
       </c>
@@ -5154,7 +5148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>350</v>
       </c>
@@ -5183,7 +5177,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>353</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>356</v>
       </c>
@@ -5241,7 +5235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>359</v>
       </c>
@@ -5270,7 +5264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>362</v>
       </c>
@@ -5299,7 +5293,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>365</v>
       </c>
@@ -5328,7 +5322,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>368</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>371</v>
       </c>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B64CAD8E-E30D-4049-8527-44BA8C8C3D54}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F83402-E092-4EF5-B832-C97010C2F844}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1530" windowWidth="28050" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="615" windowWidth="28050" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1916,10 +1916,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:E3"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4076,19 +4076,19 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="14">
         <v>305</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="14">
         <v>15</v>
       </c>
       <c r="F63" s="45" t="s">
@@ -4105,19 +4105,19 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="14">
         <v>313</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="14">
         <v>7</v>
       </c>
       <c r="F64" s="45" t="s">
@@ -4134,19 +4134,19 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="14">
         <v>313</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="14">
         <v>13</v>
       </c>
       <c r="F65" s="43" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F83402-E092-4EF5-B832-C97010C2F844}"/>
+  <xr:revisionPtr revIDLastSave="1052" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA648B8D-3087-4F3A-A9E1-70749185D8D1}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="615" windowWidth="28050" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="525" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="380">
   <si>
     <t>Листинг</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>Строк на чел.</t>
+  </si>
+  <si>
+    <t>Читсяков Андрей ПМ</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,9 +1508,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1916,10 +1916,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3203,14 +3203,14 @@
       <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G36" s="18">
-        <v>45993</v>
-      </c>
-      <c r="H36" s="21">
-        <v>45952</v>
+        <v>45995</v>
+      </c>
+      <c r="H36" s="18">
+        <v>45995</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>143</v>
@@ -3239,14 +3239,14 @@
       <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G37" s="18">
-        <v>45993</v>
-      </c>
-      <c r="H37" s="21">
-        <v>45952</v>
+        <v>45995</v>
+      </c>
+      <c r="H37" s="18">
+        <v>45995</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>143</v>
@@ -3275,11 +3275,11 @@
       <c r="E38" s="14">
         <v>9</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="35">
-        <v>45958</v>
+      <c r="G38" s="18">
+        <v>45995</v>
       </c>
       <c r="H38" s="21">
         <v>45952</v>
@@ -3311,11 +3311,11 @@
       <c r="E39" s="14">
         <v>28</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="35">
-        <v>45958</v>
+      <c r="G39" s="18">
+        <v>45995</v>
       </c>
       <c r="H39" s="21">
         <v>45952</v>
@@ -4149,11 +4149,11 @@
       <c r="E65" s="14">
         <v>13</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="30">
-        <v>45972</v>
+      <c r="G65" s="18">
+        <v>45995</v>
       </c>
       <c r="H65" s="21">
         <v>45966</v>
@@ -4797,7 +4797,7 @@
         <v>45988</v>
       </c>
       <c r="I87" s="47" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
         <v>45988</v>
       </c>
       <c r="I88" s="47" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
         <v>45973</v>
       </c>
       <c r="I89" s="36" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5019,7 +5019,7 @@
       <c r="E95" s="3">
         <v>16</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="48" t="s">
         <v>204</v>
       </c>
       <c r="G95" s="18">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1052" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA648B8D-3087-4F3A-A9E1-70749185D8D1}"/>
+  <xr:revisionPtr revIDLastSave="1054" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF5DF9B-4990-4A78-AA74-DE27CEC47972}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="525" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3240" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1916,10 +1916,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4884,7 +4884,7 @@
         <v>45973</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>101</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>45973</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>101</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1054" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF5DF9B-4990-4A78-AA74-DE27CEC47972}"/>
+  <xr:revisionPtr revIDLastSave="1143" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B9CEA3-41D8-4C31-8C1E-1DBB86BEEE4C}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3240" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="390" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1492,9 +1492,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,10 +1504,19 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1916,10 +1922,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2600,7 @@
       <c r="F19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="43">
         <v>45979</v>
       </c>
       <c r="H19" s="18">
@@ -2630,7 +2636,7 @@
       <c r="F20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <v>45979</v>
       </c>
       <c r="H20" s="18">
@@ -2666,7 +2672,7 @@
       <c r="F21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="43">
         <v>45979</v>
       </c>
       <c r="H21" s="18">
@@ -2702,7 +2708,7 @@
       <c r="F22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="43">
         <v>45979</v>
       </c>
       <c r="H22" s="18">
@@ -2738,7 +2744,7 @@
       <c r="F23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="43">
         <v>45986</v>
       </c>
       <c r="H23" s="18">
@@ -2774,7 +2780,7 @@
       <c r="F24" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="43">
         <v>45951</v>
       </c>
       <c r="H24" s="21">
@@ -2810,7 +2816,7 @@
       <c r="F25" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <v>45951</v>
       </c>
       <c r="H25" s="21">
@@ -2846,7 +2852,7 @@
       <c r="F26" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="43">
         <v>45951</v>
       </c>
       <c r="H26" s="21">
@@ -3101,7 +3107,7 @@
       <c r="G33" s="18">
         <v>45979</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="43">
         <v>45981</v>
       </c>
       <c r="I33" s="17" t="s">
@@ -3137,7 +3143,7 @@
       <c r="G34" s="18">
         <v>45979</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="43">
         <v>45981</v>
       </c>
       <c r="I34" s="17" t="s">
@@ -3173,7 +3179,7 @@
       <c r="G35" s="21">
         <v>45981</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="43">
         <v>45981</v>
       </c>
       <c r="I35" s="34" t="s">
@@ -3527,10 +3533,10 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="43">
         <v>45986</v>
       </c>
       <c r="H45" s="21">
@@ -3917,14 +3923,14 @@
       <c r="E57" s="3">
         <v>41</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="30">
-        <v>45972</v>
-      </c>
-      <c r="H57" s="21">
-        <v>45967</v>
+      <c r="G57" s="50">
+        <v>46002</v>
+      </c>
+      <c r="H57" s="18">
+        <v>46002</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>55</v>
@@ -3946,17 +3952,17 @@
       <c r="E58" s="3">
         <v>17</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="G58" s="30">
-        <v>45972</v>
-      </c>
-      <c r="H58" s="21">
-        <v>45967</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>66</v>
+      <c r="G58" s="47">
+        <v>46000</v>
+      </c>
+      <c r="H58" s="18">
+        <v>46002</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,14 +4039,14 @@
       <c r="E61" s="3">
         <v>42</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="G61" s="30">
-        <v>45972</v>
-      </c>
-      <c r="H61" s="21">
-        <v>45967</v>
+      <c r="G61" s="24">
+        <v>46002</v>
+      </c>
+      <c r="H61" s="18">
+        <v>46002</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>13</v>
@@ -4062,14 +4068,14 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="44" t="s">
         <v>225</v>
       </c>
       <c r="G62" s="30">
         <v>45972</v>
       </c>
-      <c r="H62" s="21">
-        <v>45967</v>
+      <c r="H62" s="18">
+        <v>46002</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>101</v>
@@ -4091,7 +4097,7 @@
       <c r="E63" s="14">
         <v>15</v>
       </c>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="44" t="s">
         <v>229</v>
       </c>
       <c r="G63" s="21">
@@ -4120,7 +4126,7 @@
       <c r="E64" s="14">
         <v>7</v>
       </c>
-      <c r="F64" s="45" t="s">
+      <c r="F64" s="44" t="s">
         <v>229</v>
       </c>
       <c r="G64" s="30">
@@ -4149,7 +4155,7 @@
       <c r="E65" s="14">
         <v>13</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="44" t="s">
         <v>229</v>
       </c>
       <c r="G65" s="18">
@@ -4178,7 +4184,7 @@
       <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="42" t="s">
         <v>239</v>
       </c>
       <c r="G66" s="30">
@@ -4207,7 +4213,7 @@
       <c r="E67" s="3">
         <v>12</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="42" t="s">
         <v>239</v>
       </c>
       <c r="G67" s="30">
@@ -4265,11 +4271,11 @@
       <c r="E69" s="3">
         <v>20</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="30">
-        <v>45972</v>
+      <c r="G69" s="47">
+        <v>46000</v>
       </c>
       <c r="H69" s="21">
         <v>45966</v>
@@ -4468,14 +4474,14 @@
       <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="37" t="s">
         <v>272</v>
       </c>
       <c r="G76" s="30">
         <v>45972</v>
       </c>
-      <c r="H76" s="21">
-        <v>45966</v>
+      <c r="H76" s="19">
+        <v>46002</v>
       </c>
       <c r="I76" s="15" t="s">
         <v>273</v>
@@ -4642,13 +4648,13 @@
       <c r="E82" s="3">
         <v>5</v>
       </c>
-      <c r="F82" s="40" t="s">
+      <c r="F82" s="46" t="s">
         <v>225</v>
       </c>
       <c r="G82" s="24">
-        <v>45979</v>
-      </c>
-      <c r="H82" s="21">
+        <v>46002</v>
+      </c>
+      <c r="H82" s="18">
         <v>45973</v>
       </c>
       <c r="I82" s="36" t="s">
@@ -4729,13 +4735,13 @@
       <c r="E85" s="3">
         <v>11</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="32" t="s">
         <v>225</v>
       </c>
       <c r="G85" s="24">
-        <v>45979</v>
-      </c>
-      <c r="H85" s="21">
+        <v>46002</v>
+      </c>
+      <c r="H85" s="16">
         <v>45973</v>
       </c>
       <c r="I85" s="36" t="s">
@@ -4790,13 +4796,13 @@
       <c r="F87" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="G87" s="24">
-        <v>45979</v>
+      <c r="G87" s="18">
+        <v>46000</v>
       </c>
       <c r="H87" s="18">
         <v>45988</v>
       </c>
-      <c r="I87" s="47" t="s">
+      <c r="I87" s="48" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4819,13 +4825,13 @@
       <c r="F88" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="G88" s="24">
-        <v>45979</v>
+      <c r="G88" s="18">
+        <v>46000</v>
       </c>
       <c r="H88" s="18">
         <v>45988</v>
       </c>
-      <c r="I88" s="47" t="s">
+      <c r="I88" s="48" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4845,16 +4851,16 @@
       <c r="E89" s="14">
         <v>13</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="G89" s="24">
-        <v>45979</v>
-      </c>
-      <c r="H89" s="21">
-        <v>45973</v>
-      </c>
-      <c r="I89" s="36" t="s">
+      <c r="G89" s="18">
+        <v>46000</v>
+      </c>
+      <c r="H89" s="18">
+        <v>45988</v>
+      </c>
+      <c r="I89" s="37" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5019,7 +5025,7 @@
       <c r="E95" s="3">
         <v>16</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F95" s="46" t="s">
         <v>204</v>
       </c>
       <c r="G95" s="18">
@@ -5048,16 +5054,16 @@
       <c r="E96" s="3">
         <v>9</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G96" s="13">
-        <v>45986</v>
-      </c>
-      <c r="H96" s="16">
-        <v>45981</v>
-      </c>
-      <c r="I96" s="3" t="s">
+      <c r="G96" s="24">
+        <v>46002</v>
+      </c>
+      <c r="H96" s="19">
+        <v>46002</v>
+      </c>
+      <c r="I96" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5171,9 +5177,9 @@
         <v>45986</v>
       </c>
       <c r="H100" s="16">
-        <v>45981</v>
-      </c>
-      <c r="I100" s="42" t="s">
+        <v>46009</v>
+      </c>
+      <c r="I100" s="49" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5200,9 +5206,9 @@
         <v>45986</v>
       </c>
       <c r="H101" s="16">
-        <v>45981</v>
-      </c>
-      <c r="I101" s="42" t="s">
+        <v>46009</v>
+      </c>
+      <c r="I101" s="49" t="s">
         <v>272</v>
       </c>
     </row>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1143" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B9CEA3-41D8-4C31-8C1E-1DBB86BEEE4C}"/>
+  <xr:revisionPtr revIDLastSave="1145" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B775E2-A46E-45CD-AA21-79124530BCE2}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="390" windowWidth="19305" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="810" windowWidth="24315" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="A60:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3995,13 +3995,13 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="37" t="s">
         <v>217</v>
       </c>
       <c r="D60" s="14">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1145" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B775E2-A46E-45CD-AA21-79124530BCE2}"/>
+  <xr:revisionPtr revIDLastSave="1159" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B318CF2-E142-4166-A9E7-1B0EB675F3F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="810" windowWidth="24315" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="210" windowWidth="22080" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="381">
   <si>
     <t>Листинг</t>
   </si>
@@ -1201,6 +1201,9 @@
   </si>
   <si>
     <t>Читсяков Андрей ПМ</t>
+  </si>
+  <si>
+    <t>Парфенов в ПМ / Медведев Данил ПМ</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1519,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1922,10 +1925,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="A60:C60"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3006,7 @@
         <v>45981</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="J30" s="6" t="str">
         <v>Баранова Дарья ПМ</v>
@@ -3908,31 +3911,31 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="14">
         <v>287</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="14">
         <v>41</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="50">
-        <v>46002</v>
+      <c r="G57" s="18">
+        <v>46007</v>
       </c>
       <c r="H57" s="18">
         <v>46002</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4004,10 +4007,10 @@
       <c r="C60" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="37">
         <v>292</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="37">
         <v>32</v>
       </c>
       <c r="F60" s="17" t="s">
@@ -4532,11 +4535,11 @@
       <c r="E78" s="3">
         <v>13</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G78" s="24">
-        <v>45979</v>
+      <c r="G78" s="18">
+        <v>46007</v>
       </c>
       <c r="H78" s="21">
         <v>45973</v>
@@ -4561,11 +4564,11 @@
       <c r="E79" s="3">
         <v>15</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G79" s="24">
-        <v>45979</v>
+      <c r="G79" s="18">
+        <v>46007</v>
       </c>
       <c r="H79" s="21">
         <v>45973</v>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B318CF2-E142-4166-A9E7-1B0EB675F3F5}"/>
+  <xr:revisionPtr revIDLastSave="1160" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60C9A3E-5DCC-40A2-A6CC-08B5AF29F81A}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="210" windowWidth="22080" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="810" windowWidth="23025" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1925,10 +1925,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3911,19 +3911,19 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="37">
         <v>287</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="37">
         <v>41</v>
       </c>
       <c r="F57" s="17" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1160" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60C9A3E-5DCC-40A2-A6CC-08B5AF29F81A}"/>
+  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6B779A-CA58-4D14-B3FA-AA9F77ECA223}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="810" windowWidth="23025" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1335" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1182,9 +1182,6 @@
     <t>anneal</t>
   </si>
   <si>
-    <t>Иммитация отжига</t>
-  </si>
-  <si>
     <t>Панкратова Анна ПМ</t>
   </si>
   <si>
@@ -1204,6 +1201,9 @@
   </si>
   <si>
     <t>Парфенов в ПМ / Медведев Данил ПМ</t>
+  </si>
+  <si>
+    <t>Имитация отжига</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +1925,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:E57"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2765,19 +2765,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="14">
         <v>152</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="14">
         <v>8</v>
       </c>
       <c r="F24" s="17" t="s">
@@ -2801,19 +2801,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="14">
         <v>153</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="14">
         <v>10</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2837,19 +2837,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="14">
         <v>155</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="14">
         <v>10</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -2873,19 +2873,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="14">
         <v>155</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="14">
         <v>7</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2909,19 +2909,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="14">
         <v>161</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="14">
         <v>9</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -3006,7 +3006,7 @@
         <v>45981</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J30" s="6" t="str">
         <v>Баранова Дарья ПМ</v>
@@ -4864,7 +4864,7 @@
         <v>45988</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5361,25 +5361,25 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D107" s="14">
+        <v>475</v>
+      </c>
+      <c r="E107" s="14">
+        <v>37</v>
+      </c>
+      <c r="F107" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="3">
-        <v>475</v>
-      </c>
-      <c r="E107" s="3">
-        <v>37</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G107" s="13">
+      <c r="G107" s="24">
         <v>45986</v>
       </c>
       <c r="H107" s="16">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E108" s="3">
         <f>SUM(E19:E107)</f>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>101</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>66</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E111" s="3">
         <f>SUM(E109:E110)</f>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" s="3">
         <f>E108/E111</f>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6B779A-CA58-4D14-B3FA-AA9F77ECA223}"/>
+  <xr:revisionPtr revIDLastSave="1192" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8640D7D-C747-476F-BC31-BD60A4E4BB87}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1335" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="810" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="380">
   <si>
     <t>Листинг</t>
   </si>
@@ -829,9 +829,6 @@
   </si>
   <si>
     <t>Процедура генерирования подмножеств</t>
-  </si>
-  <si>
-    <t>Глезденев Александр ПМ</t>
   </si>
   <si>
     <t>9.5</t>
@@ -1210,7 +1207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1319,6 +1316,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1382,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,13 +1462,9 @@
     <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1520,6 +1520,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1922,13 +1929,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:E28"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1980,19 +1988,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="35">
         <v>26</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="35">
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -2008,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="str" cm="1">
-        <f t="array" ref="J2:J50">_xlfn.UNIQUE($F$2:$F$107)</f>
+        <f t="array" ref="J2:J49">_xlfn.UNIQUE($F$2:$F$107)</f>
         <v>Чистяков Андрей ПМ</v>
       </c>
       <c r="K2" s="4">
@@ -2017,19 +2025,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>67</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <v>13</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -2053,19 +2061,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>69</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>16</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -2117,19 +2125,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>77</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="35">
         <v>5</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -2153,19 +2161,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>99</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="35">
         <v>4</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -2462,10 +2470,10 @@
       <c r="G15" s="21">
         <v>45944</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <v>45945</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="39" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="3" t="str">
@@ -2513,25 +2521,25 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>121</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>45944</v>
       </c>
       <c r="H17" s="21">
@@ -2549,19 +2557,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <v>145</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="23" t="s">
@@ -2603,7 +2611,7 @@
       <c r="F19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="41">
         <v>45979</v>
       </c>
       <c r="H19" s="18">
@@ -2639,7 +2647,7 @@
       <c r="F20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="41">
         <v>45979</v>
       </c>
       <c r="H20" s="18">
@@ -2675,7 +2683,7 @@
       <c r="F21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="41">
         <v>45979</v>
       </c>
       <c r="H21" s="18">
@@ -2711,7 +2719,7 @@
       <c r="F22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="41">
         <v>45979</v>
       </c>
       <c r="H22" s="18">
@@ -2747,7 +2755,7 @@
       <c r="F23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="41">
         <v>45986</v>
       </c>
       <c r="H23" s="18">
@@ -2783,7 +2791,7 @@
       <c r="F24" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="41">
         <v>45951</v>
       </c>
       <c r="H24" s="21">
@@ -2819,7 +2827,7 @@
       <c r="F25" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="41">
         <v>45951</v>
       </c>
       <c r="H25" s="21">
@@ -2855,7 +2863,7 @@
       <c r="F26" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="41">
         <v>45951</v>
       </c>
       <c r="H26" s="21">
@@ -2888,11 +2896,11 @@
       <c r="E27" s="14">
         <v>7</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="29">
-        <v>45951</v>
+      <c r="G27" s="50">
+        <v>46014</v>
       </c>
       <c r="H27" s="21">
         <v>45950</v>
@@ -2924,11 +2932,11 @@
       <c r="E28" s="14">
         <v>9</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="29">
-        <v>45951</v>
+      <c r="G28" s="50">
+        <v>46014</v>
       </c>
       <c r="H28" s="18">
         <v>45981</v>
@@ -3006,7 +3014,7 @@
         <v>45981</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J30" s="6" t="str">
         <v>Баранова Дарья ПМ</v>
@@ -3017,19 +3025,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="35">
         <v>163</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="35">
         <v>15</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -3041,7 +3049,7 @@
       <c r="H31" s="18">
         <v>45972</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="36" t="s">
         <v>124</v>
       </c>
       <c r="J31" s="3" t="str">
@@ -3053,19 +3061,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="35">
         <v>183</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="35">
         <v>15</v>
       </c>
       <c r="F32" s="17" t="s">
@@ -3077,7 +3085,7 @@
       <c r="H32" s="18">
         <v>45972</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="36" t="s">
         <v>124</v>
       </c>
       <c r="J32" s="4" t="str">
@@ -3110,7 +3118,7 @@
       <c r="G33" s="18">
         <v>45979</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="41">
         <v>45981</v>
       </c>
       <c r="I33" s="17" t="s">
@@ -3146,7 +3154,7 @@
       <c r="G34" s="18">
         <v>45979</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="41">
         <v>45981</v>
       </c>
       <c r="I34" s="17" t="s">
@@ -3182,10 +3190,10 @@
       <c r="G35" s="21">
         <v>45981</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="41">
         <v>45981</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="32" t="s">
         <v>101</v>
       </c>
       <c r="J35" s="6" t="str">
@@ -3193,7 +3201,7 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,7 +3220,7 @@
       <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="36" t="s">
         <v>142</v>
       </c>
       <c r="G36" s="18">
@@ -3225,11 +3233,11 @@
         <v>143</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>Глезденев Александр ПМ</v>
+        <v>Иванова Мария ПМ</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3256,7 @@
       <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="36" t="s">
         <v>142</v>
       </c>
       <c r="G37" s="18">
@@ -3261,11 +3269,11 @@
         <v>143</v>
       </c>
       <c r="J37" s="4" t="str">
-        <v>Иванова Мария ПМ</v>
+        <v>Русских Анастасия Мх</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,11 +3305,11 @@
         <v>101</v>
       </c>
       <c r="J38" s="3" t="str">
-        <v>Русских Анастасия Мх</v>
+        <v>Тулумгузина Дарья ПМ</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3333,11 +3341,11 @@
         <v>101</v>
       </c>
       <c r="J39" s="4" t="str">
-        <v>Тулумгузина Дарья ПМ</v>
+        <v>Миниахметов Тагир Мх</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,24 +3364,24 @@
       <c r="E40" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <v>45958</v>
       </c>
       <c r="H40" s="21">
         <v>45952</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="32" t="s">
         <v>66</v>
       </c>
       <c r="J40" s="6" t="str">
-        <v>Миниахметов Тагир Мх</v>
+        <v>Миниахметво Тагир Мх</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,7 +3403,7 @@
       <c r="F41" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <v>45958</v>
       </c>
       <c r="H41" s="21">
@@ -3405,11 +3413,11 @@
         <v>101</v>
       </c>
       <c r="J41" s="4" t="str">
-        <v>Миниахметво Тагир Мх</v>
+        <v>Пашацкий Никита ПМ</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3431,7 +3439,7 @@
       <c r="F42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="29">
         <v>45958</v>
       </c>
       <c r="H42" s="21">
@@ -3441,11 +3449,11 @@
         <v>101</v>
       </c>
       <c r="J42" s="3" t="str">
-        <v>Пашацкий Никита ПМ</v>
+        <v>Пестерев Матвей Мх</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,7 +3475,7 @@
       <c r="F43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="29">
         <v>45958</v>
       </c>
       <c r="H43" s="21">
@@ -3477,11 +3485,11 @@
         <v>101</v>
       </c>
       <c r="J43" s="6" t="str">
-        <v>Пестерев Матвей Мх</v>
+        <v>Зайнышев Замир Мх</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,15 +3517,15 @@
       <c r="H44" s="21">
         <v>45952</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>66</v>
       </c>
       <c r="J44" t="str">
-        <v>Зайнышев Замир Мх</v>
+        <v>Пруденко Дарья ПМ</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3536,10 +3544,10 @@
       <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="41">
         <v>45986</v>
       </c>
       <c r="H45" s="21">
@@ -3549,11 +3557,11 @@
         <v>66</v>
       </c>
       <c r="J45" t="str">
-        <v>Пруденко Дарья ПМ</v>
+        <v>Попов Николай ПМ</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3583,7 @@
       <c r="F46" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="33">
         <v>45958</v>
       </c>
       <c r="H46" s="18">
@@ -3585,11 +3593,11 @@
         <v>101</v>
       </c>
       <c r="J46" t="str">
-        <v>Попов Николай ПМ</v>
+        <v>Торопов Егор Сергеевич ПМ</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,7 +3616,7 @@
       <c r="E47" s="3">
         <v>30</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="35" t="s">
         <v>178</v>
       </c>
       <c r="G47" s="18">
@@ -3621,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="J47" t="str">
-        <v>Торопов Егор Сергеевич ПМ</v>
+        <v>Анкушин Иван ПМ</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="0"/>
@@ -3647,7 +3655,7 @@
       <c r="F48" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="29">
         <v>45972</v>
       </c>
       <c r="H48" s="21">
@@ -3657,11 +3665,11 @@
         <v>101</v>
       </c>
       <c r="J48" t="str">
-        <v>Анкушин Иван ПМ</v>
+        <v>Дизендорф Андрей Константинович ПМ</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3693,11 +3701,11 @@
         <v>183</v>
       </c>
       <c r="J49" t="str">
-        <v>Дизендорф Андрей Константинович ПМ</v>
+        <v>Панкратова Анна ПМ</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,12 +3736,9 @@
       <c r="I50" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J50" t="str">
-        <v>Панкратова Анна ПМ</v>
-      </c>
       <c r="K50" s="4">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3789,7 @@
       <c r="F52" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="29">
         <v>45972</v>
       </c>
       <c r="H52" s="21">
@@ -3868,11 +3873,11 @@
       <c r="E55" s="3">
         <v>30</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G55" s="30">
-        <v>45972</v>
+      <c r="G55" s="18">
+        <v>46014</v>
       </c>
       <c r="H55" s="21">
         <v>45967</v>
@@ -3911,19 +3916,19 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="35">
         <v>287</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="35">
         <v>41</v>
       </c>
       <c r="F57" s="17" t="s">
@@ -3940,25 +3945,25 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="14">
         <v>291</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="14">
         <v>17</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F58" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="G58" s="47">
+      <c r="G58" s="45">
         <v>46000</v>
       </c>
       <c r="H58" s="18">
@@ -3987,7 +3992,7 @@
       <c r="F59" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="29">
         <v>45972</v>
       </c>
       <c r="H59" s="21">
@@ -3998,19 +4003,19 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="35">
         <v>292</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="35">
         <v>32</v>
       </c>
       <c r="F60" s="17" t="s">
@@ -4071,10 +4076,10 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="29">
         <v>45972</v>
       </c>
       <c r="H62" s="18">
@@ -4100,7 +4105,7 @@
       <c r="E63" s="14">
         <v>15</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="42" t="s">
         <v>229</v>
       </c>
       <c r="G63" s="21">
@@ -4129,10 +4134,10 @@
       <c r="E64" s="14">
         <v>7</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="29">
         <v>45972</v>
       </c>
       <c r="H64" s="18">
@@ -4158,7 +4163,7 @@
       <c r="E65" s="14">
         <v>13</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="42" t="s">
         <v>229</v>
       </c>
       <c r="G65" s="18">
@@ -4187,10 +4192,10 @@
       <c r="E66" s="3">
         <v>3</v>
       </c>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="29">
         <v>45972</v>
       </c>
       <c r="H66" s="21">
@@ -4216,10 +4221,10 @@
       <c r="E67" s="3">
         <v>12</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="29">
         <v>45972</v>
       </c>
       <c r="H67" s="21">
@@ -4248,7 +4253,7 @@
       <c r="F68" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="29">
         <v>45972</v>
       </c>
       <c r="H68" s="21">
@@ -4274,10 +4279,10 @@
       <c r="E69" s="3">
         <v>20</v>
       </c>
-      <c r="F69" s="37" t="s">
+      <c r="F69" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="45">
         <v>46000</v>
       </c>
       <c r="H69" s="21">
@@ -4332,10 +4337,10 @@
       <c r="E71" s="3">
         <v>5</v>
       </c>
-      <c r="F71" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G71" s="30">
+      <c r="F71" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" s="29">
         <v>45972</v>
       </c>
       <c r="H71" s="21">
@@ -4347,13 +4352,13 @@
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D72" s="3">
         <v>329</v>
@@ -4361,28 +4366,28 @@
       <c r="E72" s="3">
         <v>17</v>
       </c>
-      <c r="F72" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="30">
+      <c r="F72" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G72" s="29">
         <v>45972</v>
       </c>
       <c r="H72" s="21">
         <v>45966</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D73" s="3">
         <v>331</v>
@@ -4400,18 +4405,18 @@
         <v>45966</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="D74" s="3">
         <v>331</v>
@@ -4429,18 +4434,18 @@
         <v>45966</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D75" s="3">
         <v>332</v>
@@ -4458,18 +4463,18 @@
         <v>45966</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="3">
         <v>333</v>
@@ -4477,28 +4482,28 @@
       <c r="E76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="G76" s="30">
+      <c r="F76" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G76" s="29">
         <v>45972</v>
       </c>
       <c r="H76" s="19">
         <v>46002</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D77" s="3">
         <v>333</v>
@@ -4509,7 +4514,7 @@
       <c r="F77" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G77" s="29">
         <v>45972</v>
       </c>
       <c r="H77" s="21">
@@ -4521,13 +4526,13 @@
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D78" s="3">
         <v>334</v>
@@ -4535,7 +4540,7 @@
       <c r="E78" s="3">
         <v>13</v>
       </c>
-      <c r="F78" s="50" t="s">
+      <c r="F78" s="48" t="s">
         <v>85</v>
       </c>
       <c r="G78" s="18">
@@ -4550,13 +4555,13 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D79" s="3">
         <v>336</v>
@@ -4564,7 +4569,7 @@
       <c r="E79" s="3">
         <v>15</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="48" t="s">
         <v>85</v>
       </c>
       <c r="G79" s="18">
@@ -4574,18 +4579,18 @@
         <v>45973</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D80" s="3">
         <v>336</v>
@@ -4593,8 +4598,8 @@
       <c r="E80" s="3">
         <v>6</v>
       </c>
-      <c r="F80" s="40" t="s">
-        <v>260</v>
+      <c r="F80" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G80" s="24">
         <v>45979</v>
@@ -4602,19 +4607,19 @@
       <c r="H80" s="21">
         <v>45973</v>
       </c>
-      <c r="I80" s="36" t="s">
+      <c r="I80" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="3">
         <v>337</v>
@@ -4622,8 +4627,8 @@
       <c r="E81" s="3">
         <v>4</v>
       </c>
-      <c r="F81" s="40" t="s">
-        <v>289</v>
+      <c r="F81" s="38" t="s">
+        <v>288</v>
       </c>
       <c r="G81" s="24">
         <v>45979</v>
@@ -4637,13 +4642,13 @@
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D82" s="3">
         <v>337</v>
@@ -4651,7 +4656,7 @@
       <c r="E82" s="3">
         <v>5</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="44" t="s">
         <v>225</v>
       </c>
       <c r="G82" s="24">
@@ -4660,19 +4665,19 @@
       <c r="H82" s="18">
         <v>45973</v>
       </c>
-      <c r="I82" s="36" t="s">
+      <c r="I82" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D83" s="3">
         <v>343</v>
@@ -4680,8 +4685,8 @@
       <c r="E83" s="3">
         <v>25</v>
       </c>
-      <c r="F83" s="40" t="s">
-        <v>260</v>
+      <c r="F83" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G83" s="24">
         <v>45979</v>
@@ -4695,13 +4700,13 @@
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D84" s="3">
         <v>344</v>
@@ -4709,8 +4714,8 @@
       <c r="E84" s="3">
         <v>9</v>
       </c>
-      <c r="F84" s="32" t="s">
-        <v>299</v>
+      <c r="F84" s="30" t="s">
+        <v>298</v>
       </c>
       <c r="G84" s="24">
         <v>45979</v>
@@ -4719,18 +4724,18 @@
         <v>45973</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D85" s="3">
         <v>346</v>
@@ -4738,7 +4743,7 @@
       <c r="E85" s="3">
         <v>11</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="30" t="s">
         <v>225</v>
       </c>
       <c r="G85" s="24">
@@ -4747,19 +4752,19 @@
       <c r="H85" s="16">
         <v>45973</v>
       </c>
-      <c r="I85" s="36" t="s">
+      <c r="I85" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D86" s="3">
         <v>354</v>
@@ -4777,18 +4782,18 @@
         <v>45973</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="D87" s="14">
         <v>356</v>
@@ -4797,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G87" s="18">
         <v>46000</v>
@@ -4805,19 +4810,19 @@
       <c r="H87" s="18">
         <v>45988</v>
       </c>
-      <c r="I87" s="48" t="s">
+      <c r="I87" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="D88" s="14">
         <v>357</v>
@@ -4826,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G88" s="18">
         <v>46000</v>
@@ -4834,19 +4839,19 @@
       <c r="H88" s="18">
         <v>45988</v>
       </c>
-      <c r="I88" s="48" t="s">
+      <c r="I88" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="D89" s="14">
         <v>357</v>
@@ -4854,8 +4859,8 @@
       <c r="E89" s="14">
         <v>13</v>
       </c>
-      <c r="F89" s="37" t="s">
-        <v>300</v>
+      <c r="F89" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="G89" s="18">
         <v>46000</v>
@@ -4863,19 +4868,19 @@
       <c r="H89" s="18">
         <v>45988</v>
       </c>
-      <c r="I89" s="37" t="s">
-        <v>378</v>
+      <c r="I89" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D90" s="3">
         <v>360</v>
@@ -4883,8 +4888,8 @@
       <c r="E90" s="3">
         <v>16</v>
       </c>
-      <c r="F90" s="40" t="s">
-        <v>319</v>
+      <c r="F90" s="38" t="s">
+        <v>318</v>
       </c>
       <c r="G90" s="24">
         <v>45979</v>
@@ -4892,19 +4897,19 @@
       <c r="H90" s="21">
         <v>45973</v>
       </c>
-      <c r="I90" s="36" t="s">
-        <v>342</v>
+      <c r="I90" s="34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D91" s="3">
         <v>362</v>
@@ -4912,8 +4917,8 @@
       <c r="E91" s="3">
         <v>23</v>
       </c>
-      <c r="F91" s="40" t="s">
-        <v>319</v>
+      <c r="F91" s="38" t="s">
+        <v>318</v>
       </c>
       <c r="G91" s="24">
         <v>45979</v>
@@ -4921,19 +4926,19 @@
       <c r="H91" s="21">
         <v>45973</v>
       </c>
-      <c r="I91" s="36" t="s">
-        <v>342</v>
+      <c r="I91" s="34" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D92" s="3">
         <v>364</v>
@@ -4941,7 +4946,7 @@
       <c r="E92" s="3">
         <v>5</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="31" t="s">
         <v>143</v>
       </c>
       <c r="G92" s="24">
@@ -4951,18 +4956,18 @@
         <v>45973</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D93" s="3">
         <v>364</v>
@@ -4980,18 +4985,18 @@
         <v>45981</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D94" s="3">
         <v>366</v>
@@ -5000,7 +5005,7 @@
         <v>21</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G94" s="13">
         <v>45986</v>
@@ -5009,18 +5014,18 @@
         <v>45981</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D95" s="3">
         <v>367</v>
@@ -5028,7 +5033,7 @@
       <c r="E95" s="3">
         <v>16</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="44" t="s">
         <v>204</v>
       </c>
       <c r="G95" s="18">
@@ -5037,19 +5042,19 @@
       <c r="H95" s="16">
         <v>45981</v>
       </c>
-      <c r="I95" s="36" t="s">
+      <c r="I95" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D96" s="3">
         <v>368</v>
@@ -5057,8 +5062,8 @@
       <c r="E96" s="3">
         <v>9</v>
       </c>
-      <c r="F96" s="37" t="s">
-        <v>272</v>
+      <c r="F96" s="35" t="s">
+        <v>271</v>
       </c>
       <c r="G96" s="24">
         <v>46002</v>
@@ -5067,27 +5072,27 @@
         <v>46002</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="14">
+        <v>367</v>
+      </c>
+      <c r="E97" s="14">
+        <v>5</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="D97" s="3">
-        <v>367</v>
-      </c>
-      <c r="E97" s="3">
-        <v>5</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="G97" s="13">
         <v>45986</v>
@@ -5101,13 +5106,13 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D98" s="3">
         <v>367</v>
@@ -5116,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G98" s="13">
         <v>45986</v>
@@ -5124,19 +5129,19 @@
       <c r="H98" s="16">
         <v>45981</v>
       </c>
-      <c r="I98" s="36" t="s">
+      <c r="I98" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D99" s="3">
         <v>368</v>
@@ -5145,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G99" s="13">
         <v>45986</v>
@@ -5153,19 +5158,19 @@
       <c r="H99" s="16">
         <v>45981</v>
       </c>
-      <c r="I99" s="36" t="s">
+      <c r="I99" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="D100" s="3">
         <v>370</v>
@@ -5173,28 +5178,28 @@
       <c r="E100" s="3">
         <v>6</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G100" s="13">
-        <v>45986</v>
+      <c r="F100" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G100" s="18">
+        <v>46014</v>
       </c>
       <c r="H100" s="16">
         <v>46009</v>
       </c>
-      <c r="I100" s="49" t="s">
-        <v>272</v>
+      <c r="I100" s="47" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D101" s="3">
         <v>377</v>
@@ -5202,28 +5207,28 @@
       <c r="E101" s="3">
         <v>22</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G101" s="13">
-        <v>45986</v>
+      <c r="F101" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G101" s="18">
+        <v>46014</v>
       </c>
       <c r="H101" s="16">
         <v>46009</v>
       </c>
-      <c r="I101" s="49" t="s">
-        <v>272</v>
+      <c r="I101" s="47" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="D102" s="3">
         <v>377</v>
@@ -5246,13 +5251,13 @@
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103" s="3">
         <v>384</v>
@@ -5261,7 +5266,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G103" s="13">
         <v>45986</v>
@@ -5269,19 +5274,19 @@
       <c r="H103" s="16">
         <v>45981</v>
       </c>
-      <c r="I103" s="36" t="s">
+      <c r="I103" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="D104" s="3">
         <v>384</v>
@@ -5304,13 +5309,13 @@
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D105" s="3">
         <v>465</v>
@@ -5319,7 +5324,7 @@
         <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G105" s="13">
         <v>45986</v>
@@ -5328,27 +5333,27 @@
         <v>45981</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="D106" s="14">
         <v>470</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="14">
         <v>24</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G106" s="13">
         <v>45986</v>
@@ -5357,18 +5362,18 @@
         <v>45981</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>372</v>
-      </c>
       <c r="C107" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D107" s="14">
         <v>475</v>
@@ -5376,22 +5381,22 @@
       <c r="E107" s="14">
         <v>37</v>
       </c>
-      <c r="F107" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="G107" s="24">
-        <v>45986</v>
+      <c r="F107" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G107" s="18">
+        <v>46014</v>
       </c>
       <c r="H107" s="16">
         <v>45981</v>
       </c>
-      <c r="I107" s="36" t="s">
+      <c r="I107" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E108" s="3">
         <f>SUM(E19:E107)</f>
@@ -5400,7 +5405,7 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>101</v>
@@ -5411,7 +5416,7 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>66</v>
@@ -5422,7 +5427,7 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E111" s="3">
         <f>SUM(E109:E110)</f>
@@ -5431,7 +5436,7 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E112" s="3">
         <f>E108/E111</f>

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1192" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8640D7D-C747-476F-BC31-BD60A4E4BB87}"/>
+  <xr:revisionPtr revIDLastSave="1193" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23A95DE-3E64-4A61-9F78-65D8A45112EE}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="810" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="285" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1936,7 +1936,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2881,19 +2881,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="35">
         <v>155</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="35">
         <v>7</v>
       </c>
       <c r="F27" s="49" t="s">
@@ -2917,19 +2917,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="35">
         <v>161</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="35">
         <v>9</v>
       </c>
       <c r="F28" s="14" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1193" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23A95DE-3E64-4A61-9F78-65D8A45112EE}"/>
+  <xr:revisionPtr revIDLastSave="1216" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC760CF6-9641-487B-929A-A1924FDA1DB4}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="285" windowWidth="26145" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="405" windowWidth="20610" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1527,6 +1527,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,10 +1936,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:E28"/>
+      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2023,7 @@
         <v>Чистяков Андрей ПМ</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K50" si="0">SUMIF(F2:F107, J2, E2:E107)</f>
+        <f>SUMIF(F2:F107, J2, E2:E107)</f>
         <v>24</v>
       </c>
     </row>
@@ -2056,7 +2059,7 @@
         <v>Парфёнов Вячеслав ПМ</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F3:F108, J3, E3:E108)</f>
         <v>25</v>
       </c>
     </row>
@@ -2092,7 +2095,7 @@
         <v>Догадаться, как матрица хранится</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F4:F109, J4, E4:E109)</f>
         <v>8</v>
       </c>
     </row>
@@ -2120,7 +2123,7 @@
         <v>Илья Быков Мх</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F5:F110, J5, E5:E110)</f>
         <v>27</v>
       </c>
     </row>
@@ -2156,7 +2159,7 @@
         <v>Волков Александр Мх</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F6:F111, J6, E6:E111)</f>
         <v>18</v>
       </c>
     </row>
@@ -2192,7 +2195,7 @@
         <v>Овсянникова Анастасия ПМ</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F7:F112, J7, E7:E112)</f>
         <v>29</v>
       </c>
     </row>
@@ -2228,7 +2231,7 @@
         <v>Попова Юлианна Мх</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F8:F113, J8, E8:E113)</f>
         <v>22</v>
       </c>
     </row>
@@ -2264,7 +2267,7 @@
         <v>Чебурин Артём ПМ</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F9:F114, J9, E9:E114)</f>
         <v>30</v>
       </c>
     </row>
@@ -2300,7 +2303,7 @@
         <v>Бердникова Екатерина Мх</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F10:F115, J10, E10:E115)</f>
         <v>30</v>
       </c>
     </row>
@@ -2336,7 +2339,7 @@
         <v>Хайретдинов Булат Мх</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F11:F116, J11, E11:E116)</f>
         <v>0</v>
       </c>
     </row>
@@ -2372,24 +2375,24 @@
         <v>Матвеева Дарья Мх</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F12:F117, J12, E12:E117)</f>
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>110</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="14">
         <v>13</v>
       </c>
       <c r="F13" s="17" t="s">
@@ -2408,24 +2411,24 @@
         <v>Иванов Илья ПМ</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F13:F118, J13, E13:E118)</f>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>111</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="14">
         <v>10</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -2444,7 +2447,7 @@
         <v>Макатов Владислав Мх</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F14:F119, J14, E14:E119)</f>
         <v>28</v>
       </c>
     </row>
@@ -2480,7 +2483,7 @@
         <v>Пинигин Павел ПМ</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F15:F120, J15, E15:E120)</f>
         <v>16</v>
       </c>
     </row>
@@ -2516,7 +2519,7 @@
         <v>Захаров Андрей Мх</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F16:F121, J16, E16:E121)</f>
         <v>30</v>
       </c>
     </row>
@@ -2552,7 +2555,7 @@
         <v>Карасс Виталий Мх</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F17:F122, J17, E17:E122)</f>
         <v>36</v>
       </c>
     </row>
@@ -2588,7 +2591,7 @@
         <v>Кинева Анна Мх</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F18:F123, J18, E18:E123)</f>
         <v>27</v>
       </c>
     </row>
@@ -2624,7 +2627,7 @@
         <v>Михайлова Юлия Мх</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F19:F124, J19, E19:E124)</f>
         <v>37</v>
       </c>
     </row>
@@ -2660,7 +2663,7 @@
         <v>Корниенко Михаил Мх</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F20:F125, J20, E20:E125)</f>
         <v>35</v>
       </c>
     </row>
@@ -2696,7 +2699,7 @@
         <v>Черняева Милана ПМ</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F21:F126, J21, E21:E126)</f>
         <v>28</v>
       </c>
     </row>
@@ -2732,7 +2735,7 @@
         <v>Матвиевский Арсений Мх</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F22:F127, J22, E22:E127)</f>
         <v>60</v>
       </c>
     </row>
@@ -2768,7 +2771,7 @@
         <v>Зарипов Тимур Мх</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F23:F128, J23, E23:E128)</f>
         <v>42</v>
       </c>
     </row>
@@ -2804,7 +2807,7 @@
         <v>Барахнина Екатерина ПМ</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F24:F129, J24, E24:E129)</f>
         <v>28</v>
       </c>
     </row>
@@ -2840,7 +2843,7 @@
         <v>Варлакова Александра ПМ</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F25:F130, J25, E25:E130)</f>
         <v>31</v>
       </c>
     </row>
@@ -2876,7 +2879,7 @@
         <v>Гаврилюк Екатерина ПМ</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F26:F131, J26, E26:E131)</f>
         <v>35</v>
       </c>
     </row>
@@ -2912,7 +2915,7 @@
         <v xml:space="preserve">Юрьева Елизавета ПМ </v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F27:F132, J27, E27:E132)</f>
         <v>28</v>
       </c>
     </row>
@@ -2948,7 +2951,7 @@
         <v>Иванова Анастасия Мх</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F28:F133, J28, E28:E133)</f>
         <v>41</v>
       </c>
     </row>
@@ -2984,7 +2987,7 @@
         <v>Зарубина Дарья ПМ</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F29:F134, J29, E29:E134)</f>
         <v>33</v>
       </c>
     </row>
@@ -3020,7 +3023,7 @@
         <v>Баранова Дарья ПМ</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F30:F135, J30, E30:E135)</f>
         <v>32</v>
       </c>
     </row>
@@ -3056,7 +3059,7 @@
         <v>Тудвасева Кристина Мх</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F31:F136, J31, E31:E136)</f>
         <v>42</v>
       </c>
     </row>
@@ -3092,7 +3095,7 @@
         <v>Норицина Арина Мх</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F32:F137, J32, E32:E137)</f>
         <v>20</v>
       </c>
     </row>
@@ -3128,7 +3131,7 @@
         <v>Копылов Кирилл Мх</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F33:F138, J33, E33:E138)</f>
         <v>35</v>
       </c>
     </row>
@@ -3164,7 +3167,7 @@
         <v>Рыжова Ульяна Мх</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F34:F139, J34, E34:E139)</f>
         <v>15</v>
       </c>
     </row>
@@ -3200,7 +3203,7 @@
         <v>Суханова Анастасия ПМ</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F35:F140, J35, E35:E140)</f>
         <v>63</v>
       </c>
     </row>
@@ -3236,7 +3239,7 @@
         <v>Иванова Мария ПМ</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F36:F141, J36, E36:E141)</f>
         <v>33</v>
       </c>
     </row>
@@ -3272,7 +3275,7 @@
         <v>Русских Анастасия Мх</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F37:F142, J37, E37:E142)</f>
         <v>30</v>
       </c>
     </row>
@@ -3308,7 +3311,7 @@
         <v>Тулумгузина Дарья ПМ</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F38:F143, J38, E38:E143)</f>
         <v>28</v>
       </c>
     </row>
@@ -3344,7 +3347,7 @@
         <v>Миниахметов Тагир Мх</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F39:F144, J39, E39:E144)</f>
         <v>31</v>
       </c>
     </row>
@@ -3380,7 +3383,7 @@
         <v>Миниахметво Тагир Мх</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F40:F145, J40, E40:E145)</f>
         <v>4</v>
       </c>
     </row>
@@ -3416,7 +3419,7 @@
         <v>Пашацкий Никита ПМ</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F41:F146, J41, E41:E146)</f>
         <v>30</v>
       </c>
     </row>
@@ -3452,7 +3455,7 @@
         <v>Пестерев Матвей Мх</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F42:F147, J42, E42:E147)</f>
         <v>42</v>
       </c>
     </row>
@@ -3488,7 +3491,7 @@
         <v>Зайнышев Замир Мх</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F43:F148, J43, E43:E148)</f>
         <v>39</v>
       </c>
     </row>
@@ -3524,7 +3527,7 @@
         <v>Пруденко Дарья ПМ</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F44:F149, J44, E44:E149)</f>
         <v>30</v>
       </c>
     </row>
@@ -3560,7 +3563,7 @@
         <v>Попов Николай ПМ</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F45:F150, J45, E45:E150)</f>
         <v>29</v>
       </c>
     </row>
@@ -3596,7 +3599,7 @@
         <v>Торопов Егор Сергеевич ПМ</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F46:F151, J46, E46:E151)</f>
         <v>28</v>
       </c>
     </row>
@@ -3632,7 +3635,7 @@
         <v>Анкушин Иван ПМ</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F47:F152, J47, E47:E152)</f>
         <v>28</v>
       </c>
     </row>
@@ -3668,7 +3671,7 @@
         <v>Дизендорф Андрей Константинович ПМ</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F48:F153, J48, E48:E153)</f>
         <v>30</v>
       </c>
     </row>
@@ -3704,7 +3707,7 @@
         <v>Панкратова Анна ПМ</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F49:F154, J49, E49:E154)</f>
         <v>37</v>
       </c>
     </row>
@@ -3737,7 +3740,7 @@
         <v>66</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(F50:F155, J50, E50:E155)</f>
         <v>0</v>
       </c>
     </row>
@@ -3887,19 +3890,19 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="14">
         <v>284</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="14">
         <v>12</v>
       </c>
       <c r="F56" s="17" t="s">
@@ -4409,19 +4412,19 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="14">
         <v>331</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="14">
         <v>5</v>
       </c>
       <c r="F74" s="17" t="s">
@@ -4438,19 +4441,19 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="14">
         <v>332</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="14">
         <v>28</v>
       </c>
       <c r="F75" s="17" t="s">
@@ -4931,19 +4934,19 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="52">
         <v>364</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="52">
         <v>5</v>
       </c>
       <c r="F92" s="31" t="s">
@@ -4960,19 +4963,19 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="52">
         <v>364</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="52">
         <v>25</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -5018,19 +5021,19 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="14">
         <v>367</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="14">
         <v>16</v>
       </c>
       <c r="F95" s="44" t="s">
@@ -5163,19 +5166,19 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="14">
         <v>370</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="14">
         <v>6</v>
       </c>
       <c r="F100" s="42" t="s">
@@ -5192,19 +5195,19 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="14">
         <v>377</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="14">
         <v>22</v>
       </c>
       <c r="F101" s="17" t="s">
@@ -5221,19 +5224,19 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="14">
         <v>377</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="14">
         <v>12</v>
       </c>
       <c r="F102" s="3" t="s">

--- a/SkienAlgsListFinal.xlsx
+++ b/SkienAlgsListFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/sergey_osipov_urfu_me/Documents/AiSD2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1216" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC760CF6-9641-487B-929A-A1924FDA1DB4}"/>
+  <xr:revisionPtr revIDLastSave="1230" documentId="13_ncr:1_{BB64072A-02B6-4C3F-B1E2-71C6B558E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40023E57-9A00-4F81-A25C-651315AAA906}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="405" windowWidth="20610" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="1245" windowWidth="20595" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -837,9 +837,6 @@
     <t>construct_candidates</t>
   </si>
   <si>
-    <t>Процедруа генерирования перестановок</t>
-  </si>
-  <si>
     <t>Миниахметов Тагир Мх</t>
   </si>
   <si>
@@ -1201,6 +1198,9 @@
   </si>
   <si>
     <t>Имитация отжига</t>
+  </si>
+  <si>
+    <t>Процедура генерирования перестановок</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1527,9 +1527,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,10 +1933,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2020,7 @@
         <v>Чистяков Андрей ПМ</v>
       </c>
       <c r="K2" s="4">
-        <f>SUMIF(F2:F107, J2, E2:E107)</f>
+        <f t="shared" ref="K2:K33" si="0">SUMIF(F2:F107, J2, E2:E107)</f>
         <v>24</v>
       </c>
     </row>
@@ -2059,7 +2056,7 @@
         <v>Парфёнов Вячеслав ПМ</v>
       </c>
       <c r="K3" s="4">
-        <f>SUMIF(F3:F108, J3, E3:E108)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2095,7 +2092,7 @@
         <v>Догадаться, как матрица хранится</v>
       </c>
       <c r="K4" s="4">
-        <f>SUMIF(F4:F109, J4, E4:E109)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2123,7 +2120,7 @@
         <v>Илья Быков Мх</v>
       </c>
       <c r="K5" s="4">
-        <f>SUMIF(F5:F110, J5, E5:E110)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -2159,7 +2156,7 @@
         <v>Волков Александр Мх</v>
       </c>
       <c r="K6" s="4">
-        <f>SUMIF(F6:F111, J6, E6:E111)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -2195,7 +2192,7 @@
         <v>Овсянникова Анастасия ПМ</v>
       </c>
       <c r="K7" s="4">
-        <f>SUMIF(F7:F112, J7, E7:E112)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -2231,7 +2228,7 @@
         <v>Попова Юлианна Мх</v>
       </c>
       <c r="K8" s="4">
-        <f>SUMIF(F8:F113, J8, E8:E113)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
         <v>Чебурин Артём ПМ</v>
       </c>
       <c r="K9" s="4">
-        <f>SUMIF(F9:F114, J9, E9:E114)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2303,7 +2300,7 @@
         <v>Бердникова Екатерина Мх</v>
       </c>
       <c r="K10" s="4">
-        <f>SUMIF(F10:F115, J10, E10:E115)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2339,7 +2336,7 @@
         <v>Хайретдинов Булат Мх</v>
       </c>
       <c r="K11" s="4">
-        <f>SUMIF(F11:F116, J11, E11:E116)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2372,7 @@
         <v>Матвеева Дарья Мх</v>
       </c>
       <c r="K12" s="4">
-        <f>SUMIF(F12:F117, J12, E12:E117)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -2411,7 +2408,7 @@
         <v>Иванов Илья ПМ</v>
       </c>
       <c r="K13" s="4">
-        <f>SUMIF(F13:F118, J13, E13:E118)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2447,24 +2444,24 @@
         <v>Макатов Владислав Мх</v>
       </c>
       <c r="K14" s="4">
-        <f>SUMIF(F14:F119, J14, E14:E119)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>112</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <v>8</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -2483,7 +2480,7 @@
         <v>Пинигин Павел ПМ</v>
       </c>
       <c r="K15" s="4">
-        <f>SUMIF(F15:F120, J15, E15:E120)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2519,7 +2516,7 @@
         <v>Захаров Андрей Мх</v>
       </c>
       <c r="K16" s="4">
-        <f>SUMIF(F16:F121, J16, E16:E121)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2555,7 +2552,7 @@
         <v>Карасс Виталий Мх</v>
       </c>
       <c r="K17" s="4">
-        <f>SUMIF(F17:F122, J17, E17:E122)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2591,7 +2588,7 @@
         <v>Кинева Анна Мх</v>
       </c>
       <c r="K18" s="4">
-        <f>SUMIF(F18:F123, J18, E18:E123)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -2627,7 +2624,7 @@
         <v>Михайлова Юлия Мх</v>
       </c>
       <c r="K19" s="4">
-        <f>SUMIF(F19:F124, J19, E19:E124)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -2663,7 +2660,7 @@
         <v>Корниенко Михаил Мх</v>
       </c>
       <c r="K20" s="4">
-        <f>SUMIF(F20:F125, J20, E20:E125)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -2699,7 +2696,7 @@
         <v>Черняева Милана ПМ</v>
       </c>
       <c r="K21" s="4">
-        <f>SUMIF(F21:F126, J21, E21:E126)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -2735,7 +2732,7 @@
         <v>Матвиевский Арсений Мх</v>
       </c>
       <c r="K22" s="4">
-        <f>SUMIF(F22:F127, J22, E22:E127)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2771,7 +2768,7 @@
         <v>Зарипов Тимур Мх</v>
       </c>
       <c r="K23" s="4">
-        <f>SUMIF(F23:F128, J23, E23:E128)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -2807,7 +2804,7 @@
         <v>Барахнина Екатерина ПМ</v>
       </c>
       <c r="K24" s="4">
-        <f>SUMIF(F24:F129, J24, E24:E129)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -2843,7 +2840,7 @@
         <v>Варлакова Александра ПМ</v>
       </c>
       <c r="K25" s="4">
-        <f>SUMIF(F25:F130, J25, E25:E130)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -2879,7 +2876,7 @@
         <v>Гаврилюк Екатерина ПМ</v>
       </c>
       <c r="K26" s="4">
-        <f>SUMIF(F26:F131, J26, E26:E131)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -2915,7 +2912,7 @@
         <v xml:space="preserve">Юрьева Елизавета ПМ </v>
       </c>
       <c r="K27" s="4">
-        <f>SUMIF(F27:F132, J27, E27:E132)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -2951,7 +2948,7 @@
         <v>Иванова Анастасия Мх</v>
       </c>
       <c r="K28" s="4">
-        <f>SUMIF(F28:F133, J28, E28:E133)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -2987,7 +2984,7 @@
         <v>Зарубина Дарья ПМ</v>
       </c>
       <c r="K29" s="4">
-        <f>SUMIF(F29:F134, J29, E29:E134)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -3017,13 +3014,13 @@
         <v>45981</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J30" s="6" t="str">
         <v>Баранова Дарья ПМ</v>
       </c>
       <c r="K30" s="4">
-        <f>SUMIF(F30:F135, J30, E30:E135)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -3059,7 +3056,7 @@
         <v>Тудвасева Кристина Мх</v>
       </c>
       <c r="K31" s="4">
-        <f>SUMIF(F31:F136, J31, E31:E136)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -3095,7 +3092,7 @@
         <v>Норицина Арина Мх</v>
       </c>
       <c r="K32" s="4">
-        <f>SUMIF(F32:F137, J32, E32:E137)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3131,7 +3128,7 @@
         <v>Копылов Кирилл Мх</v>
       </c>
       <c r="K33" s="4">
-        <f>SUMIF(F33:F138, J33, E33:E138)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -3167,7 +3164,7 @@
         <v>Рыжова Ульяна Мх</v>
       </c>
       <c r="K34" s="4">
-        <f>SUMIF(F34:F139, J34, E34:E139)</f>
+        <f t="shared" ref="K34:K50" si="1">SUMIF(F34:F139, J34, E34:E139)</f>
         <v>15</v>
       </c>
     </row>
@@ -3203,7 +3200,7 @@
         <v>Суханова Анастасия ПМ</v>
       </c>
       <c r="K35" s="4">
-        <f>SUMIF(F35:F140, J35, E35:E140)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
@@ -3239,7 +3236,7 @@
         <v>Иванова Мария ПМ</v>
       </c>
       <c r="K36" s="4">
-        <f>SUMIF(F36:F141, J36, E36:E141)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -3275,7 +3272,7 @@
         <v>Русских Анастасия Мх</v>
       </c>
       <c r="K37" s="4">
-        <f>SUMIF(F37:F142, J37, E37:E142)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3311,7 +3308,7 @@
         <v>Тулумгузина Дарья ПМ</v>
       </c>
       <c r="K38" s="4">
-        <f>SUMIF(F38:F143, J38, E38:E143)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -3347,24 +3344,24 @@
         <v>Миниахметов Тагир Мх</v>
       </c>
       <c r="K39" s="4">
-        <f>SUMIF(F39:F144, J39, E39:E144)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="14">
         <v>255</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="14">
         <v>3</v>
       </c>
       <c r="F40" s="38" t="s">
@@ -3383,7 +3380,7 @@
         <v>Миниахметво Тагир Мх</v>
       </c>
       <c r="K40" s="4">
-        <f>SUMIF(F40:F145, J40, E40:E145)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3419,7 +3416,7 @@
         <v>Пашацкий Никита ПМ</v>
       </c>
       <c r="K41" s="4">
-        <f>SUMIF(F41:F146, J41, E41:E146)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3455,7 +3452,7 @@
         <v>Пестерев Матвей Мх</v>
       </c>
       <c r="K42" s="4">
-        <f>SUMIF(F42:F147, J42, E42:E147)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -3491,7 +3488,7 @@
         <v>Зайнышев Замир Мх</v>
       </c>
       <c r="K43" s="4">
-        <f>SUMIF(F43:F148, J43, E43:E148)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
@@ -3527,7 +3524,7 @@
         <v>Пруденко Дарья ПМ</v>
       </c>
       <c r="K44" s="4">
-        <f>SUMIF(F44:F149, J44, E44:E149)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3563,7 +3560,7 @@
         <v>Попов Николай ПМ</v>
       </c>
       <c r="K45" s="4">
-        <f>SUMIF(F45:F150, J45, E45:E150)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -3599,7 +3596,7 @@
         <v>Торопов Егор Сергеевич ПМ</v>
       </c>
       <c r="K46" s="4">
-        <f>SUMIF(F46:F151, J46, E46:E151)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -3635,7 +3632,7 @@
         <v>Анкушин Иван ПМ</v>
       </c>
       <c r="K47" s="4">
-        <f>SUMIF(F47:F152, J47, E47:E152)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -3671,7 +3668,7 @@
         <v>Дизендорф Андрей Константинович ПМ</v>
       </c>
       <c r="K48" s="4">
-        <f>SUMIF(F48:F153, J48, E48:E153)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3707,7 +3704,7 @@
         <v>Панкратова Анна ПМ</v>
       </c>
       <c r="K49" s="4">
-        <f>SUMIF(F49:F154, J49, E49:E154)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -3740,7 +3737,7 @@
         <v>66</v>
       </c>
       <c r="K50" s="4">
-        <f>SUMIF(F50:F155, J50, E50:E155)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4035,19 +4032,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="14">
         <v>301</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="14">
         <v>42</v>
       </c>
       <c r="F61" s="17" t="s">
@@ -4296,19 +4293,19 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="14">
         <v>329</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="14">
         <v>18</v>
       </c>
       <c r="F70" s="18" t="s">
@@ -4325,19 +4322,19 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="14">
         <v>329</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="14">
         <v>5</v>
       </c>
       <c r="F71" s="51" t="s">
@@ -4354,19 +4351,19 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C72" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D72" s="14">
         <v>329</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="14">
         <v>17</v>
       </c>
       <c r="F72" s="38" t="s">
@@ -4379,23 +4376,23 @@
         <v>45966</v>
       </c>
       <c r="I72" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="D73" s="14">
         <v>331</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="14">
         <v>14</v>
       </c>
       <c r="F73" s="18" t="s">
@@ -4408,18 +4405,18 @@
         <v>45966</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="D74" s="14">
         <v>331</v>
@@ -4437,18 +4434,18 @@
         <v>45966</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75" s="14">
         <v>332</v>
@@ -4466,18 +4463,18 @@
         <v>45966</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" s="3">
         <v>333</v>
@@ -4486,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G76" s="29">
         <v>45972</v>
@@ -4495,18 +4492,18 @@
         <v>46002</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D77" s="3">
         <v>333</v>
@@ -4529,13 +4526,13 @@
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D78" s="3">
         <v>334</v>
@@ -4558,13 +4555,13 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D79" s="3">
         <v>336</v>
@@ -4582,18 +4579,18 @@
         <v>45973</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D80" s="3">
         <v>336</v>
@@ -4602,7 +4599,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G80" s="24">
         <v>45979</v>
@@ -4616,13 +4613,13 @@
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D81" s="3">
         <v>337</v>
@@ -4631,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G81" s="24">
         <v>45979</v>
@@ -4645,13 +4642,13 @@
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D82" s="3">
         <v>337</v>
@@ -4674,13 +4671,13 @@
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D83" s="3">
         <v>343</v>
@@ -4689,7 +4686,7 @@
         <v>25</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G83" s="24">
         <v>45979</v>
@@ -4703,13 +4700,13 @@
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D84" s="3">
         <v>344</v>
@@ -4718,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G84" s="24">
         <v>45979</v>
@@ -4727,18 +4724,18 @@
         <v>45973</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D85" s="3">
         <v>346</v>
@@ -4760,19 +4757,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="D86" s="14">
         <v>354</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="14">
         <v>9</v>
       </c>
       <c r="F86" s="17" t="s">
@@ -4785,18 +4782,18 @@
         <v>45973</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>308</v>
       </c>
       <c r="D87" s="14">
         <v>356</v>
@@ -4805,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G87" s="18">
         <v>46000</v>
@@ -4819,13 +4816,13 @@
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="D88" s="14">
         <v>357</v>
@@ -4834,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G88" s="18">
         <v>46000</v>
@@ -4848,13 +4845,13 @@
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="D89" s="14">
         <v>357</v>
@@ -4863,7 +4860,7 @@
         <v>13</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G89" s="18">
         <v>46000</v>
@@ -4872,18 +4869,18 @@
         <v>45988</v>
       </c>
       <c r="I89" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D90" s="3">
         <v>360</v>
@@ -4892,7 +4889,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G90" s="24">
         <v>45979</v>
@@ -4901,18 +4898,18 @@
         <v>45973</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D91" s="3">
         <v>362</v>
@@ -4921,7 +4918,7 @@
         <v>23</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G91" s="24">
         <v>45979</v>
@@ -4930,23 +4927,23 @@
         <v>45973</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="C92" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C92" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="D92" s="52">
+      <c r="D92" s="3">
         <v>364</v>
       </c>
-      <c r="E92" s="52">
+      <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="31" t="s">
@@ -4959,23 +4956,23 @@
         <v>45973</v>
       </c>
       <c r="I92" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="52" t="s">
+      <c r="B93" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="C93" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="D93" s="52">
+      <c r="D93" s="3">
         <v>364</v>
       </c>
-      <c r="E93" s="52">
+      <c r="E93" s="3">
         <v>25</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -4988,18 +4985,18 @@
         <v>45981</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D94" s="3">
         <v>366</v>
@@ -5008,7 +5005,7 @@
         <v>21</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G94" s="13">
         <v>45986</v>
@@ -5017,18 +5014,18 @@
         <v>45981</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="D95" s="14">
         <v>367</v>
@@ -5051,13 +5048,13 @@
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D96" s="3">
         <v>368</v>
@@ -5066,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G96" s="24">
         <v>46002</v>
@@ -5075,18 +5072,18 @@
         <v>46002</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="D97" s="14">
         <v>367</v>
@@ -5095,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G97" s="13">
         <v>45986</v>
@@ -5109,13 +5106,13 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D98" s="3">
         <v>367</v>
@@ -5124,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G98" s="13">
         <v>45986</v>
@@ -5138,13 +5135,13 @@
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D99" s="3">
         <v>368</v>
@@ -5153,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99" s="13">
         <v>45986</v>
@@ -5167,13 +5164,13 @@
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="C100" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>351</v>
       </c>
       <c r="D100" s="14">
         <v>370</v>
@@ -5182,7 +5179,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G100" s="18">
         <v>46014</v>
@@ -5191,18 +5188,18 @@
         <v>46009</v>
       </c>
       <c r="I100" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="C101" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="D101" s="14">
         <v>377</v>
@@ -5211,7 +5208,7 @@
         <v>22</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G101" s="18">
         <v>46014</v>
@@ -5220,18 +5217,18 @@
         <v>46009</v>
       </c>
       <c r="I101" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>357</v>
       </c>
       <c r="D102" s="14">
         <v>377</v>
@@ -5254,13 +5251,13 @@
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D103" s="3">
         <v>384</v>
@@ -5269,7 +5266,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G103" s="13">
         <v>45986</v>
@@ -5283,13 +5280,13 @@
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D104" s="3">
         <v>384</v>
@@ -5312,13 +5309,13 @@
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D105" s="3">
         <v>465</v>
@@ -5327,7 +5324,7 @@
         <v>18</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G105" s="13">
         <v>45986</v>
@@ -5336,18 +5333,18 @@
         <v>45981</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="D106" s="14">
         <v>470</v>
@@ -5356,7 +5353,7 @@
         <v>24</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G106" s="13">
         <v>45986</v>
@@ -5365,18 +5362,18 @@
         <v>45981</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="C107" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D107" s="14">
         <v>475</v>
@@ -5385,7 +5382,7 @@
         <v>37</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G107" s="18">
         <v>46014</v>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E108" s="3">
         <f>SUM(E19:E107)</f>
@@ -5408,7 +5405,7 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>101</v>
@@ -5419,7 +5416,7 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>66</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E111" s="3">
         <f>SUM(E109:E110)</f>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E112" s="3">
         <f>E108/E111</f>
